--- a/시장분석용_정보/시장분석용_4183034000.xlsx
+++ b/시장분석용_정보/시장분석용_4183034000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="69">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="97">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,6 +160,48 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
     <t>202001 1309077849</t>
   </si>
   <si>
@@ -199,25 +289,19 @@
     <t>202205 4242001727</t>
   </si>
   <si>
-    <t>김규태내과의원</t>
+    <t>JDQ4MTYyMiM1MSMkMiMkMCMkMDAkNDgxNzAyIzMxIyQxIyQ3IyQxMyQ0NjE0ODEjNTEjJDEjJDYjJDgz</t>
+  </si>
+  <si>
+    <t>JDU4MTI3MSM1MSMkMiMkMCMkMDAkNTgxMzUxIzIxIyQxIyQxIyQ4OSQzNjEwMDIjNTEjJDEjJDYjJDgz</t>
+  </si>
+  <si>
+    <t>경기도</t>
   </si>
   <si>
     <t>한길의원</t>
   </si>
   <si>
-    <t>경기도 광명시 범안로 1062, 503 (하안동, 천일빌딩)</t>
-  </si>
-  <si>
-    <t>경기도 양평군 옥천면 신복길 80 .</t>
-  </si>
-  <si>
-    <t>경기도 양평군 옥천면 신복길 80 2층</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM1MSMkMiMkMCMkMDAkNDgxNzAyIzMxIyQxIyQ3IyQxMyQ0NjE0ODEjNTEjJDEjJDYjJDgz</t>
-  </si>
-  <si>
-    <t>JDU4MTI3MSM1MSMkMiMkMCMkMDAkNTgxMzUxIzIxIyQxIyQxIyQ4OSQzNjEwMDIjNTEjJDEjJDYjJDgz</t>
+    <t>경기도 양평군 옥천면 신복길 80 ()</t>
   </si>
   <si>
     <t>내과</t>
@@ -578,13 +662,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:BK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,43 +765,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>2021</v>
+        <v>2379</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2">
         <v>202001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>20652228</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>1309077849</v>
       </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="J2">
+        <v>4183034000</v>
+      </c>
+      <c r="K2">
         <v>116.9939393939394</v>
       </c>
-      <c r="K2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2">
-        <v>4183034000</v>
+      <c r="L2" t="s">
+        <v>96</v>
       </c>
       <c r="M2">
         <v>8640077</v>
@@ -729,96 +903,186 @@
         <v>13673</v>
       </c>
       <c r="P2">
+        <v>65.37</v>
+      </c>
+      <c r="Q2">
+        <v>34.63</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>7.63</v>
+      </c>
+      <c r="T2">
+        <v>9.24</v>
+      </c>
+      <c r="U2">
+        <v>23.7</v>
+      </c>
+      <c r="V2">
+        <v>11.43</v>
+      </c>
+      <c r="W2">
+        <v>13.37</v>
+      </c>
+      <c r="X2">
+        <v>34.63</v>
+      </c>
+      <c r="Y2">
+        <v>40.44</v>
+      </c>
+      <c r="Z2">
+        <v>34.74</v>
+      </c>
+      <c r="AA2">
+        <v>24.82</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>6.78</v>
       </c>
-      <c r="Q2">
+      <c r="AG2">
         <v>15.32</v>
       </c>
-      <c r="R2">
+      <c r="AH2">
         <v>3.81</v>
       </c>
-      <c r="S2">
+      <c r="AI2">
         <v>14.34</v>
       </c>
-      <c r="T2">
+      <c r="AJ2">
         <v>6.87</v>
       </c>
-      <c r="U2">
+      <c r="AK2">
         <v>1.31</v>
       </c>
-      <c r="V2">
+      <c r="AL2">
         <v>4.29</v>
       </c>
-      <c r="W2">
+      <c r="AM2">
         <v>7.4</v>
       </c>
-      <c r="X2">
+      <c r="AN2">
         <v>8.890000000000001</v>
       </c>
-      <c r="Y2">
+      <c r="AO2">
         <v>31</v>
       </c>
-      <c r="Z2">
+      <c r="AP2">
         <v>1.63</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>13.5</v>
       </c>
-      <c r="AD2">
+      <c r="AT2">
         <v>56.13</v>
       </c>
-      <c r="AE2">
+      <c r="AU2">
         <v>23.34</v>
       </c>
-      <c r="AF2">
+      <c r="AV2">
         <v>3.19</v>
       </c>
-      <c r="AG2">
+      <c r="AW2">
         <v>2.2</v>
       </c>
+      <c r="AX2">
+        <v>18.83</v>
+      </c>
+      <c r="AY2">
+        <v>4.87</v>
+      </c>
+      <c r="AZ2">
+        <v>9.69</v>
+      </c>
+      <c r="BA2">
+        <v>18.81</v>
+      </c>
+      <c r="BB2">
+        <v>37.82</v>
+      </c>
+      <c r="BC2">
+        <v>9.98</v>
+      </c>
+      <c r="BD2">
+        <v>5.21</v>
+      </c>
+      <c r="BE2">
+        <v>6.35</v>
+      </c>
+      <c r="BF2">
+        <v>7.17</v>
+      </c>
+      <c r="BG2">
+        <v>29.86</v>
+      </c>
+      <c r="BH2">
+        <v>81.54000000000001</v>
+      </c>
+      <c r="BI2">
+        <v>84.76000000000001</v>
+      </c>
+      <c r="BJ2">
+        <v>41.9</v>
+      </c>
+      <c r="BK2">
+        <v>15.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>12323</v>
+        <v>14143</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
         <v>202002</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>20652228</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>1309077849</v>
       </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="J3">
+        <v>4183034000</v>
+      </c>
+      <c r="K3">
         <v>116.9939393939394</v>
       </c>
-      <c r="K3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3">
-        <v>4183034000</v>
+      <c r="L3" t="s">
+        <v>96</v>
       </c>
       <c r="M3">
         <v>3369190</v>
@@ -830,96 +1094,186 @@
         <v>7944</v>
       </c>
       <c r="P3">
+        <v>70.08</v>
+      </c>
+      <c r="Q3">
+        <v>29.92</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>20.2</v>
+      </c>
+      <c r="T3">
+        <v>15.04</v>
+      </c>
+      <c r="U3">
+        <v>10.68</v>
+      </c>
+      <c r="V3">
+        <v>15.11</v>
+      </c>
+      <c r="W3">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="X3">
+        <v>29.92</v>
+      </c>
+      <c r="Y3">
+        <v>26.66</v>
+      </c>
+      <c r="Z3">
+        <v>45.36</v>
+      </c>
+      <c r="AA3">
+        <v>27.98</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
         <v>2.71</v>
       </c>
-      <c r="Q3">
+      <c r="AG3">
         <v>10.17</v>
       </c>
-      <c r="R3">
+      <c r="AH3">
         <v>6.71</v>
       </c>
-      <c r="S3">
+      <c r="AI3">
         <v>12.06</v>
       </c>
-      <c r="T3">
+      <c r="AJ3">
         <v>20.48</v>
       </c>
-      <c r="U3">
+      <c r="AK3">
         <v>0.89</v>
       </c>
-      <c r="V3">
+      <c r="AL3">
         <v>11.68</v>
       </c>
-      <c r="W3">
+      <c r="AM3">
         <v>6.44</v>
       </c>
-      <c r="X3">
+      <c r="AN3">
         <v>17.9</v>
       </c>
-      <c r="Y3">
+      <c r="AO3">
         <v>10.96</v>
       </c>
-      <c r="Z3">
+      <c r="AP3">
         <v>6.02</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>19.21</v>
       </c>
-      <c r="AD3">
+      <c r="AT3">
         <v>43.85</v>
       </c>
-      <c r="AE3">
+      <c r="AU3">
         <v>10.44</v>
       </c>
-      <c r="AF3">
+      <c r="AV3">
         <v>14.22</v>
       </c>
-      <c r="AG3">
+      <c r="AW3">
         <v>6.26</v>
       </c>
+      <c r="AX3">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="AY3">
+        <v>1.1</v>
+      </c>
+      <c r="AZ3">
+        <v>29.44</v>
+      </c>
+      <c r="BA3">
+        <v>14.09</v>
+      </c>
+      <c r="BB3">
+        <v>32.52</v>
+      </c>
+      <c r="BC3">
+        <v>14.64</v>
+      </c>
+      <c r="BD3">
+        <v>12.64</v>
+      </c>
+      <c r="BE3">
+        <v>2.45</v>
+      </c>
+      <c r="BF3">
+        <v>4.12</v>
+      </c>
+      <c r="BG3">
+        <v>40.12</v>
+      </c>
+      <c r="BH3">
+        <v>84.39</v>
+      </c>
+      <c r="BI3">
+        <v>90.8</v>
+      </c>
+      <c r="BJ3">
+        <v>48.6</v>
+      </c>
+      <c r="BK3">
+        <v>8.6</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>22631</v>
+        <v>25902</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4">
         <v>202003</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>20652228</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>1309077849</v>
       </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="J4">
+        <v>4183034000</v>
+      </c>
+      <c r="K4">
         <v>116.9939393939394</v>
       </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4">
-        <v>4183034000</v>
+      <c r="L4" t="s">
+        <v>96</v>
       </c>
       <c r="M4">
         <v>4500320</v>
@@ -931,96 +1285,186 @@
         <v>11435</v>
       </c>
       <c r="P4">
+        <v>98.27</v>
+      </c>
+      <c r="Q4">
+        <v>1.73</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>22.16</v>
+      </c>
+      <c r="T4">
+        <v>31.31</v>
+      </c>
+      <c r="U4">
+        <v>13.46</v>
+      </c>
+      <c r="V4">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="W4">
+        <v>21.73</v>
+      </c>
+      <c r="X4">
+        <v>1.73</v>
+      </c>
+      <c r="Y4">
+        <v>25.03</v>
+      </c>
+      <c r="Z4">
+        <v>46.06</v>
+      </c>
+      <c r="AA4">
+        <v>28.9</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
         <v>1.59</v>
       </c>
-      <c r="Q4">
+      <c r="AG4">
         <v>2.01</v>
       </c>
-      <c r="R4">
+      <c r="AH4">
         <v>6.04</v>
       </c>
-      <c r="S4">
+      <c r="AI4">
         <v>15.96</v>
       </c>
-      <c r="T4">
+      <c r="AJ4">
         <v>34.75</v>
       </c>
-      <c r="U4">
+      <c r="AK4">
         <v>0.55</v>
       </c>
-      <c r="V4">
+      <c r="AL4">
         <v>4.05</v>
       </c>
-      <c r="W4">
+      <c r="AM4">
         <v>6.55</v>
       </c>
-      <c r="X4">
+      <c r="AN4">
         <v>14.05</v>
       </c>
-      <c r="Y4">
+      <c r="AO4">
         <v>14.45</v>
       </c>
-      <c r="Z4">
+      <c r="AP4">
         <v>3.95</v>
       </c>
-      <c r="AA4">
+      <c r="AQ4">
         <v>3.49</v>
       </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>22.41</v>
       </c>
-      <c r="AD4">
+      <c r="AT4">
         <v>46.28</v>
       </c>
-      <c r="AE4">
+      <c r="AU4">
         <v>16.38</v>
       </c>
-      <c r="AF4">
+      <c r="AV4">
         <v>7</v>
       </c>
-      <c r="AG4">
+      <c r="AW4">
         <v>0.5</v>
       </c>
+      <c r="AX4">
+        <v>6.19</v>
+      </c>
+      <c r="AY4">
+        <v>5.52</v>
+      </c>
+      <c r="AZ4">
+        <v>3.06</v>
+      </c>
+      <c r="BA4">
+        <v>15.26</v>
+      </c>
+      <c r="BB4">
+        <v>50.49</v>
+      </c>
+      <c r="BC4">
+        <v>19.48</v>
+      </c>
+      <c r="BD4">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="BE4">
+        <v>2.5</v>
+      </c>
+      <c r="BF4">
+        <v>2.83</v>
+      </c>
+      <c r="BG4">
+        <v>34.53</v>
+      </c>
+      <c r="BH4">
+        <v>79.7</v>
+      </c>
+      <c r="BI4">
+        <v>86.17</v>
+      </c>
+      <c r="BJ4">
+        <v>47.2</v>
+      </c>
+      <c r="BK4">
+        <v>5.6</v>
+      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>32963</v>
+        <v>37689</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5">
         <v>202004</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>20652228</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>1309077849</v>
       </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="J5">
+        <v>4183034000</v>
+      </c>
+      <c r="K5">
         <v>116.9939393939394</v>
       </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5">
-        <v>4183034000</v>
+      <c r="L5" t="s">
+        <v>96</v>
       </c>
       <c r="M5">
         <v>2758437</v>
@@ -1032,96 +1476,186 @@
         <v>9429</v>
       </c>
       <c r="P5">
+        <v>84.7</v>
+      </c>
+      <c r="Q5">
+        <v>15.3</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>36.02</v>
+      </c>
+      <c r="T5">
+        <v>19.92</v>
+      </c>
+      <c r="U5">
+        <v>0.83</v>
+      </c>
+      <c r="V5">
+        <v>11.55</v>
+      </c>
+      <c r="W5">
+        <v>16.36</v>
+      </c>
+      <c r="X5">
+        <v>15.3</v>
+      </c>
+      <c r="Y5">
+        <v>41.89</v>
+      </c>
+      <c r="Z5">
+        <v>41.99</v>
+      </c>
+      <c r="AA5">
+        <v>14.98</v>
+      </c>
+      <c r="AB5">
+        <v>1.14</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>1.78</v>
       </c>
-      <c r="Q5">
+      <c r="AG5">
         <v>8.59</v>
       </c>
-      <c r="R5">
+      <c r="AH5">
         <v>4.17</v>
       </c>
-      <c r="S5">
+      <c r="AI5">
         <v>36.87</v>
       </c>
-      <c r="T5">
+      <c r="AJ5">
         <v>15.79</v>
       </c>
-      <c r="U5">
+      <c r="AK5">
         <v>1.58</v>
       </c>
-      <c r="V5">
+      <c r="AL5">
         <v>4.88</v>
       </c>
-      <c r="W5">
+      <c r="AM5">
         <v>1.62</v>
       </c>
-      <c r="X5">
+      <c r="AN5">
         <v>8.4</v>
       </c>
-      <c r="Y5">
+      <c r="AO5">
         <v>16.31</v>
       </c>
-      <c r="Z5">
+      <c r="AP5">
         <v>0.97</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>19.13</v>
       </c>
-      <c r="AD5">
+      <c r="AT5">
         <v>55.81</v>
       </c>
-      <c r="AE5">
+      <c r="AU5">
         <v>16.66</v>
       </c>
-      <c r="AF5">
+      <c r="AV5">
         <v>2.34</v>
       </c>
-      <c r="AG5">
+      <c r="AW5">
         <v>5.1</v>
       </c>
+      <c r="AX5">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>8.98</v>
+      </c>
+      <c r="BA5">
+        <v>13.88</v>
+      </c>
+      <c r="BB5">
+        <v>45.91</v>
+      </c>
+      <c r="BC5">
+        <v>22.53</v>
+      </c>
+      <c r="BD5">
+        <v>4.86</v>
+      </c>
+      <c r="BE5">
+        <v>2.74</v>
+      </c>
+      <c r="BF5">
+        <v>3.15</v>
+      </c>
+      <c r="BG5">
+        <v>12.92</v>
+      </c>
+      <c r="BH5">
+        <v>54.05</v>
+      </c>
+      <c r="BI5">
+        <v>57.43</v>
+      </c>
+      <c r="BJ5">
+        <v>50</v>
+      </c>
+      <c r="BK5">
+        <v>7.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>43346</v>
+        <v>49520</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6">
         <v>202005</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2020</v>
       </c>
-      <c r="E6">
-        <v>20652228</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>1309077849</v>
       </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="J6">
+        <v>4183034000</v>
+      </c>
+      <c r="K6">
         <v>116.9939393939394</v>
       </c>
-      <c r="K6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6">
-        <v>4183034000</v>
+      <c r="L6" t="s">
+        <v>96</v>
       </c>
       <c r="M6">
         <v>1428756</v>
@@ -1133,96 +1667,186 @@
         <v>4844</v>
       </c>
       <c r="P6">
+        <v>80.59</v>
+      </c>
+      <c r="Q6">
+        <v>19.41</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.37</v>
+      </c>
+      <c r="T6">
+        <v>8.58</v>
+      </c>
+      <c r="U6">
+        <v>18.51</v>
+      </c>
+      <c r="V6">
+        <v>17.2</v>
+      </c>
+      <c r="W6">
+        <v>23.36</v>
+      </c>
+      <c r="X6">
+        <v>15.97</v>
+      </c>
+      <c r="Y6">
+        <v>31</v>
+      </c>
+      <c r="Z6">
+        <v>32.63</v>
+      </c>
+      <c r="AA6">
+        <v>36.36</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
         <v>5.86</v>
       </c>
-      <c r="Q6">
+      <c r="AG6">
         <v>12.1</v>
       </c>
-      <c r="R6">
+      <c r="AH6">
         <v>3.01</v>
       </c>
-      <c r="S6">
+      <c r="AI6">
         <v>8.23</v>
       </c>
-      <c r="T6">
+      <c r="AJ6">
         <v>5.34</v>
       </c>
-      <c r="U6">
+      <c r="AK6">
         <v>3.01</v>
       </c>
-      <c r="V6">
+      <c r="AL6">
         <v>6.54</v>
       </c>
-      <c r="W6">
+      <c r="AM6">
         <v>11.35</v>
       </c>
-      <c r="X6">
+      <c r="AN6">
         <v>24.28</v>
       </c>
-      <c r="Y6">
+      <c r="AO6">
         <v>20.29</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
         <v>5.86</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>18.38</v>
       </c>
-      <c r="AD6">
+      <c r="AT6">
         <v>51.97</v>
       </c>
-      <c r="AE6">
+      <c r="AU6">
         <v>12.81</v>
       </c>
-      <c r="AF6">
+      <c r="AV6">
         <v>1.8</v>
       </c>
-      <c r="AG6">
+      <c r="AW6">
         <v>9.17</v>
       </c>
+      <c r="AX6">
+        <v>20.78</v>
+      </c>
+      <c r="AY6">
+        <v>3.53</v>
+      </c>
+      <c r="AZ6">
+        <v>10.82</v>
+      </c>
+      <c r="BA6">
+        <v>34.54</v>
+      </c>
+      <c r="BB6">
+        <v>23.64</v>
+      </c>
+      <c r="BC6">
+        <v>6.69</v>
+      </c>
+      <c r="BD6">
+        <v>3.98</v>
+      </c>
+      <c r="BE6">
+        <v>11.01</v>
+      </c>
+      <c r="BF6">
+        <v>2.41</v>
+      </c>
+      <c r="BG6">
+        <v>35.74</v>
+      </c>
+      <c r="BH6">
+        <v>83.13</v>
+      </c>
+      <c r="BI6">
+        <v>87.37</v>
+      </c>
+      <c r="BJ6">
+        <v>30.4</v>
+      </c>
+      <c r="BK6">
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>53799</v>
+        <v>61424</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7">
         <v>202006</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2020</v>
       </c>
-      <c r="E7">
-        <v>20652228</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>1309077849</v>
       </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="J7">
+        <v>4183034000</v>
+      </c>
+      <c r="K7">
         <v>116.9939393939394</v>
       </c>
-      <c r="K7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7">
-        <v>4183034000</v>
+      <c r="L7" t="s">
+        <v>96</v>
       </c>
       <c r="M7">
         <v>6856675</v>
@@ -1234,96 +1858,186 @@
         <v>13535</v>
       </c>
       <c r="P7">
+        <v>67.7</v>
+      </c>
+      <c r="Q7">
+        <v>32.3</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>5.48</v>
+      </c>
+      <c r="T7">
+        <v>23.25</v>
+      </c>
+      <c r="U7">
+        <v>6.08</v>
+      </c>
+      <c r="V7">
+        <v>23.82</v>
+      </c>
+      <c r="W7">
+        <v>9.07</v>
+      </c>
+      <c r="X7">
+        <v>32.3</v>
+      </c>
+      <c r="Y7">
+        <v>65.76000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>27.33</v>
+      </c>
+      <c r="AA7">
+        <v>6.91</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
         <v>5.79</v>
       </c>
-      <c r="Q7">
+      <c r="AG7">
         <v>10.87</v>
       </c>
-      <c r="R7">
+      <c r="AH7">
         <v>5.25</v>
       </c>
-      <c r="S7">
+      <c r="AI7">
         <v>20.56</v>
       </c>
-      <c r="T7">
+      <c r="AJ7">
         <v>8.359999999999999</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
         <v>3.99</v>
       </c>
-      <c r="W7">
+      <c r="AM7">
         <v>3.7</v>
       </c>
-      <c r="X7">
+      <c r="AN7">
         <v>8.75</v>
       </c>
-      <c r="Y7">
+      <c r="AO7">
         <v>32.73</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
         <v>12.15</v>
       </c>
-      <c r="AD7">
+      <c r="AT7">
         <v>75.03</v>
       </c>
-      <c r="AE7">
+      <c r="AU7">
         <v>6.02</v>
       </c>
-      <c r="AF7">
+      <c r="AV7">
         <v>5.1</v>
       </c>
-      <c r="AG7">
+      <c r="AW7">
         <v>1.69</v>
       </c>
+      <c r="AX7">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>12.8</v>
+      </c>
+      <c r="BA7">
+        <v>18.2</v>
+      </c>
+      <c r="BB7">
+        <v>28.87</v>
+      </c>
+      <c r="BC7">
+        <v>31.77</v>
+      </c>
+      <c r="BD7">
+        <v>2.86</v>
+      </c>
+      <c r="BE7">
+        <v>5.79</v>
+      </c>
+      <c r="BF7">
+        <v>2.57</v>
+      </c>
+      <c r="BG7">
+        <v>40.08</v>
+      </c>
+      <c r="BH7">
+        <v>70.63</v>
+      </c>
+      <c r="BI7">
+        <v>73.03</v>
+      </c>
+      <c r="BJ7">
+        <v>45.5</v>
+      </c>
+      <c r="BK7">
+        <v>12.1</v>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>72833</v>
+        <v>82999</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8">
         <v>202008</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2020</v>
       </c>
-      <c r="E8">
-        <v>119576684</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>5495000437</v>
       </c>
-      <c r="G8" t="s">
-        <v>62</v>
-      </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J8">
+        <v>4183034000</v>
+      </c>
+      <c r="K8">
         <v>116.9939393939394</v>
       </c>
-      <c r="K8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8">
-        <v>4183034000</v>
+      <c r="L8" t="s">
+        <v>96</v>
       </c>
       <c r="M8">
         <v>47193780</v>
@@ -1335,96 +2049,186 @@
         <v>432970.4587155964</v>
       </c>
       <c r="P8">
+        <v>84.45244529173125</v>
+      </c>
+      <c r="Q8">
+        <v>15.54755470826876</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>22.83569629896143</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>32.04399760222639</v>
+      </c>
+      <c r="V8">
+        <v>0.424529360436905</v>
+      </c>
+      <c r="W8">
+        <v>29.13836933384018</v>
+      </c>
+      <c r="X8">
+        <v>15.54755470826876</v>
+      </c>
+      <c r="Y8">
+        <v>8.595497618542105</v>
+      </c>
+      <c r="Z8">
+        <v>48.05263880960585</v>
+      </c>
+      <c r="AA8">
+        <v>43.35186357185206</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
         <v>0.6108671685124608</v>
       </c>
-      <c r="Q8">
+      <c r="AG8">
         <v>28.12657096252939</v>
       </c>
-      <c r="R8">
+      <c r="AH8">
         <v>37.13481222779782</v>
       </c>
-      <c r="S8">
+      <c r="AI8">
         <v>14.38796589296301</v>
       </c>
-      <c r="T8">
+      <c r="AJ8">
         <v>11.0685476128422</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
         <v>0.3872844985080661</v>
       </c>
-      <c r="Y8">
+      <c r="AO8">
         <v>8.28409894058073</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>28.86552318250414</v>
       </c>
-      <c r="AD8">
+      <c r="AT8">
         <v>69.83894047986833</v>
       </c>
-      <c r="AE8">
+      <c r="AU8">
         <v>0.8710069771906384</v>
       </c>
-      <c r="AF8">
+      <c r="AV8">
         <v>0.424529360436905</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>34.75348907546714</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0.07291534816664398</v>
+      </c>
+      <c r="BA8">
+        <v>37.80479557390826</v>
+      </c>
+      <c r="BB8">
+        <v>24.0641770474838</v>
+      </c>
+      <c r="BC8">
+        <v>3.304622954974151</v>
+      </c>
+      <c r="BD8">
+        <v>20.16256303521354</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>15.88557572544518</v>
+      </c>
+      <c r="BG8">
+        <v>0.07291534816664398</v>
+      </c>
+      <c r="BH8">
+        <v>17.72894705743003</v>
+      </c>
+      <c r="BI8">
+        <v>85.17260408680976</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>6.995414349094309</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>83340</v>
+        <v>94933</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9">
         <v>202009</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2020</v>
       </c>
-      <c r="E9">
-        <v>119576684</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>5495000437</v>
       </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J9">
+        <v>4183034000</v>
+      </c>
+      <c r="K9">
         <v>116.9939393939394</v>
       </c>
-      <c r="K9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9">
-        <v>4183034000</v>
+      <c r="L9" t="s">
+        <v>96</v>
       </c>
       <c r="M9">
         <v>64115401</v>
@@ -1436,96 +2240,186 @@
         <v>224179.7237762238</v>
       </c>
       <c r="P9">
+        <v>71.85641881862364</v>
+      </c>
+      <c r="Q9">
+        <v>28.14358118137638</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>10.96520775577774</v>
+      </c>
+      <c r="T9">
+        <v>30.65753339809884</v>
+      </c>
+      <c r="U9">
+        <v>12.78484223221188</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>17.44883543253516</v>
+      </c>
+      <c r="X9">
+        <v>28.14358118137638</v>
+      </c>
+      <c r="Y9">
+        <v>22.22099457554668</v>
+      </c>
+      <c r="Z9">
+        <v>63.65811137062062</v>
+      </c>
+      <c r="AA9">
+        <v>14.12168409334288</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
         <v>0.2026191307763949</v>
       </c>
-      <c r="Q9">
+      <c r="AG9">
         <v>4.786298814695083</v>
       </c>
-      <c r="R9">
+      <c r="AH9">
         <v>11.91746687476851</v>
       </c>
-      <c r="S9">
+      <c r="AI9">
         <v>15.70186510882151</v>
       </c>
-      <c r="T9">
+      <c r="AJ9">
         <v>12.55809740018627</v>
       </c>
-      <c r="U9">
+      <c r="AK9">
         <v>0.2026191307763949</v>
       </c>
-      <c r="V9">
+      <c r="AL9">
         <v>9.353932188773177</v>
       </c>
-      <c r="W9">
+      <c r="AM9">
         <v>8.915868786970542</v>
       </c>
-      <c r="X9">
+      <c r="AN9">
         <v>23.98855940712279</v>
       </c>
-      <c r="Y9">
+      <c r="AO9">
         <v>12.37188311759916</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
         <v>3.739243958873469</v>
       </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>5.249437471349513</v>
       </c>
-      <c r="AD9">
+      <c r="AT9">
         <v>24.6456752744945</v>
       </c>
-      <c r="AE9">
+      <c r="AU9">
         <v>22.65793788609386</v>
       </c>
-      <c r="AF9">
+      <c r="AV9">
         <v>31.39902545240262</v>
       </c>
-      <c r="AG9">
+      <c r="AW9">
         <v>12.30788991727588</v>
       </c>
+      <c r="AX9">
+        <v>10.0950142433017</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>8.249243958873469</v>
+      </c>
+      <c r="BA9">
+        <v>36.2799674750533</v>
+      </c>
+      <c r="BB9">
+        <v>39.58958301500758</v>
+      </c>
+      <c r="BC9">
+        <v>5.786191307763948</v>
+      </c>
+      <c r="BD9">
+        <v>0.2670333544353875</v>
+      </c>
+      <c r="BE9">
+        <v>0.0426621335488489</v>
+      </c>
+      <c r="BF9">
+        <v>0.4052382615527898</v>
+      </c>
+      <c r="BG9">
+        <v>2.327456396942757</v>
+      </c>
+      <c r="BH9">
+        <v>6.41894899698124</v>
+      </c>
+      <c r="BI9">
+        <v>53.79504676824839</v>
+      </c>
+      <c r="BJ9">
+        <v>5.986474318393486</v>
+      </c>
+      <c r="BK9">
+        <v>8.933661675141046</v>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>93883</v>
+        <v>106901</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10">
         <v>202010</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2020</v>
       </c>
-      <c r="E10">
-        <v>119576684</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>5495000437</v>
       </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J10">
+        <v>4183034000</v>
+      </c>
+      <c r="K10">
         <v>116.9939393939394</v>
       </c>
-      <c r="K10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10">
-        <v>4183034000</v>
+      <c r="L10" t="s">
+        <v>96</v>
       </c>
       <c r="M10">
         <v>116241973</v>
@@ -1537,96 +2431,186 @@
         <v>296535.6454081633</v>
       </c>
       <c r="P10">
+        <v>80.60410387089695</v>
+      </c>
+      <c r="Q10">
+        <v>19.39589612910304</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.3207311440765</v>
+      </c>
+      <c r="T10">
+        <v>16.9781813481435</v>
+      </c>
+      <c r="U10">
+        <v>36.03296756430657</v>
+      </c>
+      <c r="V10">
+        <v>0.02608206658708382</v>
+      </c>
+      <c r="W10">
+        <v>13.24614174778331</v>
+      </c>
+      <c r="X10">
+        <v>19.39589612910304</v>
+      </c>
+      <c r="Y10">
+        <v>51.15275178622441</v>
+      </c>
+      <c r="Z10">
+        <v>35.67105594370804</v>
+      </c>
+      <c r="AA10">
+        <v>13.17594148096574</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>3.611538022156592</v>
       </c>
-      <c r="Q10">
+      <c r="AG10">
         <v>9.222753509698258</v>
       </c>
-      <c r="R10">
+      <c r="AH10">
         <v>29.93457905545013</v>
       </c>
-      <c r="S10">
+      <c r="AI10">
         <v>34.96500027077138</v>
       </c>
-      <c r="T10">
+      <c r="AJ10">
         <v>10.88011936239245</v>
       </c>
-      <c r="U10">
+      <c r="AK10">
         <v>0.02708522299427936</v>
       </c>
-      <c r="V10">
+      <c r="AL10">
         <v>3.389375612456268</v>
       </c>
-      <c r="W10">
+      <c r="AM10">
         <v>2.552767297489006</v>
       </c>
-      <c r="X10">
+      <c r="AN10">
         <v>3.811941461196637</v>
       </c>
-      <c r="Y10">
+      <c r="AO10">
         <v>1.595090974496794</v>
       </c>
-      <c r="Z10">
+      <c r="AP10">
         <v>0.179815785989799</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>23.9858398948545</v>
       </c>
-      <c r="AD10">
+      <c r="AT10">
         <v>49.03015092646439</v>
       </c>
-      <c r="AE10">
+      <c r="AU10">
         <v>10.75699225425226</v>
       </c>
-      <c r="AF10">
+      <c r="AV10">
         <v>11.29933543101509</v>
       </c>
-      <c r="AG10">
+      <c r="AW10">
         <v>4.757614918322146</v>
       </c>
+      <c r="AX10">
+        <v>7.434049360122268</v>
+      </c>
+      <c r="AY10">
+        <v>0.1118519394023018</v>
+      </c>
+      <c r="AZ10">
+        <v>3.996425824430906</v>
+      </c>
+      <c r="BA10">
+        <v>56.86626283364959</v>
+      </c>
+      <c r="BB10">
+        <v>24.51384618789979</v>
+      </c>
+      <c r="BC10">
+        <v>7.06756385449514</v>
+      </c>
+      <c r="BD10">
+        <v>26.27459855520518</v>
+      </c>
+      <c r="BE10">
+        <v>0.4235460584448269</v>
+      </c>
+      <c r="BF10">
+        <v>3.796680060480391</v>
+      </c>
+      <c r="BG10">
+        <v>2.190779942886895</v>
+      </c>
+      <c r="BH10">
+        <v>13.76874206600055</v>
+      </c>
+      <c r="BI10">
+        <v>52.23803903904832</v>
+      </c>
+      <c r="BJ10">
+        <v>9.362697275449722</v>
+      </c>
+      <c r="BK10">
+        <v>3.755173602395755</v>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>104462</v>
+        <v>118911</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11">
         <v>202011</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2020</v>
       </c>
-      <c r="E11">
-        <v>119576684</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>5495000437</v>
       </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J11">
+        <v>4183034000</v>
+      </c>
+      <c r="K11">
         <v>116.9939393939394</v>
       </c>
-      <c r="K11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11">
-        <v>4183034000</v>
+      <c r="L11" t="s">
+        <v>96</v>
       </c>
       <c r="M11">
         <v>95998912</v>
@@ -1638,96 +2622,186 @@
         <v>215727.8921348315</v>
       </c>
       <c r="P11">
+        <v>82.40287510300115</v>
+      </c>
+      <c r="Q11">
+        <v>17.59712489699883</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>17.53921795217845</v>
+      </c>
+      <c r="T11">
+        <v>24.30458989847718</v>
+      </c>
+      <c r="U11">
+        <v>30.58244002202858</v>
+      </c>
+      <c r="V11">
+        <v>0.04371040350957311</v>
+      </c>
+      <c r="W11">
+        <v>9.93291682680737</v>
+      </c>
+      <c r="X11">
+        <v>17.59712489699883</v>
+      </c>
+      <c r="Y11">
+        <v>28.76054872351053</v>
+      </c>
+      <c r="Z11">
+        <v>60.2500650563623</v>
+      </c>
+      <c r="AA11">
+        <v>10.98975981331955</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
         <v>0.1927891847357603</v>
       </c>
-      <c r="Q11">
+      <c r="AG11">
         <v>6.356601701902622</v>
       </c>
-      <c r="R11">
+      <c r="AH11">
         <v>22.02873181437723</v>
       </c>
-      <c r="S11">
+      <c r="AI11">
         <v>39.36215344503071</v>
       </c>
-      <c r="T11">
+      <c r="AJ11">
         <v>23.52599725505223</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
         <v>4.811110348625617</v>
       </c>
-      <c r="W11">
+      <c r="AM11">
         <v>2.825701345031911</v>
       </c>
-      <c r="X11">
+      <c r="AN11">
         <v>0.2775797419454087</v>
       </c>
-      <c r="Y11">
+      <c r="AO11">
         <v>0.6193351632985173</v>
       </c>
-      <c r="Z11">
+      <c r="AP11">
         <v>6.642220697251236</v>
       </c>
-      <c r="AA11">
+      <c r="AQ11">
         <v>0.7701125446088389</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>16.86330085095131</v>
       </c>
-      <c r="AD11">
+      <c r="AT11">
         <v>56.41111034862561</v>
       </c>
-      <c r="AE11">
+      <c r="AU11">
         <v>9.604769695306548</v>
       </c>
-      <c r="AF11">
+      <c r="AV11">
         <v>3.9711474059206</v>
       </c>
-      <c r="AG11">
+      <c r="AW11">
         <v>5.73733845733585</v>
       </c>
+      <c r="AX11">
+        <v>7.465092231670292</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>3.273230030148675</v>
+      </c>
+      <c r="BA11">
+        <v>37.21541943454527</v>
+      </c>
+      <c r="BB11">
+        <v>42.83446692291679</v>
+      </c>
+      <c r="BC11">
+        <v>9.22141778752659</v>
+      </c>
+      <c r="BD11">
+        <v>18.24139802355259</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>2.201120779577169</v>
+      </c>
+      <c r="BG11">
+        <v>1.125180345793919</v>
+      </c>
+      <c r="BH11">
+        <v>27.32265220964171</v>
+      </c>
+      <c r="BI11">
+        <v>63.54595772710424</v>
+      </c>
+      <c r="BJ11">
+        <v>10.0316277792815</v>
+      </c>
+      <c r="BK11">
+        <v>4.352047762791312</v>
+      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>115068</v>
+        <v>130943</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12">
         <v>202012</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2020</v>
       </c>
-      <c r="E12">
-        <v>119576684</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>5495000437</v>
       </c>
-      <c r="G12" t="s">
-        <v>62</v>
-      </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J12">
+        <v>4183034000</v>
+      </c>
+      <c r="K12">
         <v>116.9939393939394</v>
       </c>
-      <c r="K12" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12">
-        <v>4183034000</v>
+      <c r="L12" t="s">
+        <v>96</v>
       </c>
       <c r="M12">
         <v>130270002</v>
@@ -1739,96 +2813,186 @@
         <v>353035.2357723577</v>
       </c>
       <c r="P12">
+        <v>91.3389846256393</v>
+      </c>
+      <c r="Q12">
+        <v>8.661015374360707</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>35.8585534947639</v>
+      </c>
+      <c r="T12">
+        <v>22.76163927164137</v>
+      </c>
+      <c r="U12">
+        <v>9.035779950475476</v>
+      </c>
+      <c r="V12">
+        <v>0.04056723097309847</v>
+      </c>
+      <c r="W12">
+        <v>23.65235392335374</v>
+      </c>
+      <c r="X12">
+        <v>8.661015374360707</v>
+      </c>
+      <c r="Y12">
+        <v>12.27648328154628</v>
+      </c>
+      <c r="Z12">
+        <v>22.95727755634793</v>
+      </c>
+      <c r="AA12">
+        <v>64.76632991653749</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>6.076420860268353</v>
       </c>
-      <c r="Q12">
+      <c r="AG12">
         <v>2.92322744264639</v>
       </c>
-      <c r="R12">
+      <c r="AH12">
         <v>15.77903009750472</v>
       </c>
-      <c r="S12">
+      <c r="AI12">
         <v>39.48023811207126</v>
       </c>
-      <c r="T12">
+      <c r="AJ12">
         <v>11.62847994214355</v>
       </c>
-      <c r="U12">
+      <c r="AK12">
         <v>4.538434470278122</v>
       </c>
-      <c r="V12">
+      <c r="AL12">
         <v>0.2442314332658105</v>
       </c>
-      <c r="W12">
+      <c r="AM12">
         <v>7.424628476017066</v>
       </c>
-      <c r="X12">
+      <c r="AN12">
         <v>6.498162206983</v>
       </c>
-      <c r="Y12">
+      <c r="AO12">
         <v>5.397146958821724</v>
       </c>
-      <c r="Z12">
+      <c r="AP12">
         <v>0.02187181804142446</v>
       </c>
-      <c r="AA12">
+      <c r="AQ12">
         <v>4.538434470278122</v>
       </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>20.1654281902905</v>
       </c>
-      <c r="AD12">
+      <c r="AT12">
         <v>27.75984132171887</v>
       </c>
-      <c r="AE12">
+      <c r="AU12">
         <v>23.74222345202697</v>
       </c>
-      <c r="AF12">
+      <c r="AV12">
         <v>21.88815082324172</v>
       </c>
-      <c r="AG12">
+      <c r="AW12">
         <v>1.884049924402396</v>
       </c>
+      <c r="AX12">
+        <v>18.80809984880479</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>3.893573447861005</v>
+      </c>
+      <c r="BA12">
+        <v>37.34244461468574</v>
+      </c>
+      <c r="BB12">
+        <v>34.52484400990491</v>
+      </c>
+      <c r="BC12">
+        <v>5.431038078743563</v>
+      </c>
+      <c r="BD12">
+        <v>6.412972191863482</v>
+      </c>
+      <c r="BE12">
+        <v>4.342302885817105</v>
+      </c>
+      <c r="BF12">
+        <v>6.272552444729371</v>
+      </c>
+      <c r="BG12">
+        <v>0.4429950224457661</v>
+      </c>
+      <c r="BH12">
+        <v>23.43987528364358</v>
+      </c>
+      <c r="BI12">
+        <v>65.23560969915391</v>
+      </c>
+      <c r="BJ12">
+        <v>6.257912711170451</v>
+      </c>
+      <c r="BK12">
+        <v>2.088939343073013</v>
+      </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>125682</v>
+        <v>142981</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13">
         <v>202101</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2021</v>
       </c>
-      <c r="E13">
-        <v>119578946</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>5495000437</v>
       </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J13">
+        <v>4183034000</v>
+      </c>
+      <c r="K13">
         <v>116.9939393939394</v>
       </c>
-      <c r="K13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13">
-        <v>4183034000</v>
+      <c r="L13" t="s">
+        <v>96</v>
       </c>
       <c r="M13">
         <v>76841413</v>
@@ -1840,96 +3004,186 @@
         <v>283547.6494464945</v>
       </c>
       <c r="P13">
+        <v>86.12393539626868</v>
+      </c>
+      <c r="Q13">
+        <v>13.87606460373133</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>16.09889769960373</v>
+      </c>
+      <c r="T13">
+        <v>12.51761167523038</v>
+      </c>
+      <c r="U13">
+        <v>28.72909686213084</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>28.77832915930372</v>
+      </c>
+      <c r="X13">
+        <v>13.87606460373133</v>
+      </c>
+      <c r="Y13">
+        <v>32.88201894699672</v>
+      </c>
+      <c r="Z13">
+        <v>29.55599109675403</v>
+      </c>
+      <c r="AA13">
+        <v>37.57182364410711</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
         <v>1.110686520040958</v>
       </c>
-      <c r="Q13">
+      <c r="AG13">
         <v>26.4283233263813</v>
       </c>
-      <c r="R13">
+      <c r="AH13">
         <v>11.78105782763261</v>
       </c>
-      <c r="S13">
+      <c r="AI13">
         <v>22.43190096725577</v>
       </c>
-      <c r="T13">
+      <c r="AJ13">
         <v>17.47015083012593</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
         <v>7.794639328144578</v>
       </c>
-      <c r="W13">
+      <c r="AM13">
         <v>0.4260085520551268</v>
       </c>
-      <c r="X13">
+      <c r="AN13">
         <v>7.253805837615193</v>
       </c>
-      <c r="Y13">
+      <c r="AO13">
         <v>5.313343654677459</v>
       </c>
-      <c r="Z13">
+      <c r="AP13">
         <v>0.3669232253706736</v>
       </c>
-      <c r="AA13">
+      <c r="AQ13">
         <v>0.2975053178681136</v>
       </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>19.33048345441019</v>
       </c>
-      <c r="AD13">
+      <c r="AT13">
         <v>53.8755830791399</v>
       </c>
-      <c r="AE13">
+      <c r="AU13">
         <v>14.306677616795</v>
       </c>
-      <c r="AF13">
+      <c r="AV13">
         <v>8.490684590222203</v>
       </c>
-      <c r="AG13">
+      <c r="AW13">
         <v>3.34197640405181</v>
       </c>
+      <c r="AX13">
+        <v>21.11906791484951</v>
+      </c>
+      <c r="AY13">
+        <v>0.03700445162298096</v>
+      </c>
+      <c r="AZ13">
+        <v>12.01921484187179</v>
+      </c>
+      <c r="BA13">
+        <v>45.66298778563585</v>
+      </c>
+      <c r="BB13">
+        <v>12.22664862604752</v>
+      </c>
+      <c r="BC13">
+        <v>8.935076379972347</v>
+      </c>
+      <c r="BD13">
+        <v>3.004803710467947</v>
+      </c>
+      <c r="BE13">
+        <v>7.794639328144578</v>
+      </c>
+      <c r="BF13">
+        <v>7.598899629422482</v>
+      </c>
+      <c r="BG13">
+        <v>1.509891712818972</v>
+      </c>
+      <c r="BH13">
+        <v>19.75688454206327</v>
+      </c>
+      <c r="BI13">
+        <v>91.42320821963541</v>
+      </c>
+      <c r="BJ13">
+        <v>12.64552312436004</v>
+      </c>
+      <c r="BK13">
+        <v>2.562367053297159</v>
+      </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
-        <v>136304</v>
+        <v>155021</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14">
         <v>202102</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>2021</v>
       </c>
-      <c r="E14">
-        <v>119576684</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>5495000437</v>
       </c>
-      <c r="G14" t="s">
-        <v>62</v>
-      </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J14">
+        <v>4183034000</v>
+      </c>
+      <c r="K14">
         <v>116.9939393939394</v>
       </c>
-      <c r="K14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14">
-        <v>4183034000</v>
+      <c r="L14" t="s">
+        <v>96</v>
       </c>
       <c r="M14">
         <v>72212312</v>
@@ -1941,96 +3195,186 @@
         <v>243139.0976430976</v>
       </c>
       <c r="P14">
+        <v>93.64087321286708</v>
+      </c>
+      <c r="Q14">
+        <v>6.35912678713292</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>32.27598200401062</v>
+      </c>
+      <c r="T14">
+        <v>28.0015301235612</v>
+      </c>
+      <c r="U14">
+        <v>6.57355641348251</v>
+      </c>
+      <c r="V14">
+        <v>0.02958164557866531</v>
+      </c>
+      <c r="W14">
+        <v>26.77005203406311</v>
+      </c>
+      <c r="X14">
+        <v>6.35912678713292</v>
+      </c>
+      <c r="Y14">
+        <v>29.70709649512399</v>
+      </c>
+      <c r="Z14">
+        <v>50.23641252644008</v>
+      </c>
+      <c r="AA14">
+        <v>20.05649097843592</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
         <v>5.091426055434979</v>
       </c>
-      <c r="Q14">
+      <c r="AG14">
         <v>0.03625034024668813</v>
       </c>
-      <c r="R14">
+      <c r="AH14">
         <v>21.67191741790514</v>
       </c>
-      <c r="S14">
+      <c r="AI14">
         <v>37.11993035398174</v>
       </c>
-      <c r="T14">
+      <c r="AJ14">
         <v>4.068378616377773</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
         <v>0.02667477867209126</v>
       </c>
-      <c r="W14">
+      <c r="AM14">
         <v>8.692015402027289</v>
       </c>
-      <c r="X14">
+      <c r="AN14">
         <v>9.339954049940957</v>
       </c>
-      <c r="Y14">
+      <c r="AO14">
         <v>13.95345298541335</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>5.676439584429869</v>
       </c>
-      <c r="AD14">
+      <c r="AT14">
         <v>47.10056501057604</v>
       </c>
-      <c r="AE14">
+      <c r="AU14">
         <v>22.51362125561081</v>
       </c>
-      <c r="AF14">
+      <c r="AV14">
         <v>24.70937414938328</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>10.22893145894567</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>9.862445924456761</v>
+      </c>
+      <c r="BA14">
+        <v>44.27709313309342</v>
+      </c>
+      <c r="BB14">
+        <v>26.49296498497375</v>
+      </c>
+      <c r="BC14">
+        <v>9.148393506359415</v>
+      </c>
+      <c r="BD14">
+        <v>14.54386589588767</v>
+      </c>
+      <c r="BE14">
+        <v>5.091426055434979</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>9.42893690289268</v>
+      </c>
+      <c r="BH14">
+        <v>26.85993243589819</v>
+      </c>
+      <c r="BI14">
+        <v>77.70778654781195</v>
+      </c>
+      <c r="BJ14">
+        <v>15.63419843419499</v>
+      </c>
+      <c r="BK14">
+        <v>6.594106534076902</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
-        <v>146958</v>
+        <v>167104</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15">
         <v>202103</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2021</v>
       </c>
-      <c r="E15">
-        <v>119576684</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>5495000437</v>
       </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J15">
+        <v>4183034000</v>
+      </c>
+      <c r="K15">
         <v>116.9939393939394</v>
       </c>
-      <c r="K15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15">
-        <v>4183034000</v>
+      <c r="L15" t="s">
+        <v>96</v>
       </c>
       <c r="M15">
         <v>79001776</v>
@@ -2042,96 +3386,186 @@
         <v>262464.3720930233</v>
       </c>
       <c r="P15">
+        <v>74.05241920763909</v>
+      </c>
+      <c r="Q15">
+        <v>25.94758079236092</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.60368172052233</v>
+      </c>
+      <c r="T15">
+        <v>25.97485266128701</v>
+      </c>
+      <c r="U15">
+        <v>24.54575589262702</v>
+      </c>
+      <c r="V15">
+        <v>0.07357285436216017</v>
+      </c>
+      <c r="W15">
+        <v>9.854556078840558</v>
+      </c>
+      <c r="X15">
+        <v>25.94758079236092</v>
+      </c>
+      <c r="Y15">
+        <v>22.85408869314533</v>
+      </c>
+      <c r="Z15">
+        <v>54.80185377275568</v>
+      </c>
+      <c r="AA15">
+        <v>22.34405753409898</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
         <v>1.118816718246942</v>
       </c>
-      <c r="Q15">
+      <c r="AG15">
         <v>19.33906294258498</v>
       </c>
-      <c r="R15">
+      <c r="AH15">
         <v>15.14967263951129</v>
       </c>
-      <c r="S15">
+      <c r="AI15">
         <v>23.20402370802398</v>
       </c>
-      <c r="T15">
+      <c r="AJ15">
         <v>10.26276081413663</v>
       </c>
-      <c r="U15">
+      <c r="AK15">
         <v>0.3549453764178668</v>
       </c>
-      <c r="V15">
+      <c r="AL15">
         <v>0.3661163171825403</v>
       </c>
-      <c r="W15">
+      <c r="AM15">
         <v>2.853822126732948</v>
       </c>
-      <c r="X15">
+      <c r="AN15">
         <v>9.886302509452445</v>
       </c>
-      <c r="Y15">
+      <c r="AO15">
         <v>17.45461725392097</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
         <v>7.503150873722129</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
         <v>18.56252731179107</v>
       </c>
-      <c r="AD15">
+      <c r="AT15">
         <v>31.29767731753271</v>
       </c>
-      <c r="AE15">
+      <c r="AU15">
         <v>31.05995192791615</v>
       </c>
-      <c r="AF15">
+      <c r="AV15">
         <v>0.1917318035989469</v>
       </c>
-      <c r="AG15">
+      <c r="AW15">
         <v>11.384960765439</v>
       </c>
+      <c r="AX15">
+        <v>20.30472993012208</v>
+      </c>
+      <c r="AY15">
+        <v>0.3549453764178668</v>
+      </c>
+      <c r="AZ15">
+        <v>5.775553930331895</v>
+      </c>
+      <c r="BA15">
+        <v>25.05350939325718</v>
+      </c>
+      <c r="BB15">
+        <v>38.76998270595841</v>
+      </c>
+      <c r="BC15">
+        <v>9.751138257701953</v>
+      </c>
+      <c r="BD15">
+        <v>0.2924030566097653</v>
+      </c>
+      <c r="BE15">
+        <v>0.2083628165523773</v>
+      </c>
+      <c r="BF15">
+        <v>19.73812931420681</v>
+      </c>
+      <c r="BG15">
+        <v>0.2013425060216368</v>
+      </c>
+      <c r="BH15">
+        <v>22.84882944023942</v>
+      </c>
+      <c r="BI15">
+        <v>61.58099937550771</v>
+      </c>
+      <c r="BJ15">
+        <v>17.2109209063857</v>
+      </c>
+      <c r="BK15">
+        <v>2.600780881179177</v>
+      </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
-        <v>157675</v>
+        <v>179253</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16">
         <v>202104</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>2021</v>
       </c>
-      <c r="E16">
-        <v>119576684</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>5495000437</v>
       </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J16">
+        <v>4183034000</v>
+      </c>
+      <c r="K16">
         <v>116.9939393939394</v>
       </c>
-      <c r="K16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16">
-        <v>4183034000</v>
+      <c r="L16" t="s">
+        <v>96</v>
       </c>
       <c r="M16">
         <v>94873455</v>
@@ -2143,96 +3577,186 @@
         <v>282361.4732142857</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>93.33412740128418</v>
       </c>
       <c r="Q16">
+        <v>6.665872598715837</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>42.46643832397587</v>
+      </c>
+      <c r="T16">
+        <v>16.73138109442731</v>
+      </c>
+      <c r="U16">
+        <v>13.06447562229077</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>21.06192318451984</v>
+      </c>
+      <c r="X16">
+        <v>6.665872598715837</v>
+      </c>
+      <c r="Y16">
+        <v>29.59687817619797</v>
+      </c>
+      <c r="Z16">
+        <v>61.21175946485769</v>
+      </c>
+      <c r="AA16">
+        <v>9.191453182873964</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
         <v>14.22864986228234</v>
       </c>
-      <c r="R16">
+      <c r="AH16">
         <v>14.93658045466985</v>
       </c>
-      <c r="S16">
+      <c r="AI16">
         <v>42.07436159482123</v>
       </c>
-      <c r="T16">
+      <c r="AJ16">
         <v>11.12374903085378</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
         <v>9.010845518591054</v>
       </c>
-      <c r="W16">
+      <c r="AM16">
         <v>2.039661954020753</v>
       </c>
-      <c r="X16">
+      <c r="AN16">
         <v>3.180817415366606</v>
       </c>
-      <c r="Y16">
+      <c r="AO16">
         <v>3.405243345464756</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
         <v>18.56878181794897</v>
       </c>
-      <c r="AD16">
+      <c r="AT16">
         <v>53.8151826709589</v>
       </c>
-      <c r="AE16">
+      <c r="AU16">
         <v>20.81332952868639</v>
       </c>
-      <c r="AF16">
+      <c r="AV16">
         <v>4.834077709091549</v>
       </c>
-      <c r="AG16">
+      <c r="AW16">
         <v>1.968719097243797</v>
       </c>
+      <c r="AX16">
+        <v>12.57760396034908</v>
+      </c>
+      <c r="AY16">
+        <v>4.181672301699142</v>
+      </c>
+      <c r="AZ16">
+        <v>3.904575813961872</v>
+      </c>
+      <c r="BA16">
+        <v>27.16219565630871</v>
+      </c>
+      <c r="BB16">
+        <v>42.38143078661992</v>
+      </c>
+      <c r="BC16">
+        <v>9.802339833202026</v>
+      </c>
+      <c r="BD16">
+        <v>5.03243717138793</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>11.59373600234122</v>
+      </c>
+      <c r="BG16">
+        <v>2.462132935603537</v>
+      </c>
+      <c r="BH16">
+        <v>11.63802997677274</v>
+      </c>
+      <c r="BI16">
+        <v>62.50548895294263</v>
+      </c>
+      <c r="BJ16">
+        <v>11.5634830733212</v>
+      </c>
+      <c r="BK16">
+        <v>6.79182584633394</v>
+      </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
-        <v>168421</v>
+        <v>191417</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17">
         <v>202105</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2021</v>
       </c>
-      <c r="E17">
-        <v>119576684</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>5495000437</v>
       </c>
-      <c r="G17" t="s">
-        <v>62</v>
-      </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J17">
+        <v>4183034000</v>
+      </c>
+      <c r="K17">
         <v>116.9939393939394</v>
       </c>
-      <c r="K17" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17">
-        <v>4183034000</v>
+      <c r="L17" t="s">
+        <v>96</v>
       </c>
       <c r="M17">
         <v>85541708</v>
@@ -2244,96 +3768,186 @@
         <v>281387.1973684211</v>
       </c>
       <c r="P17">
+        <v>70.67333295554491</v>
+      </c>
+      <c r="Q17">
+        <v>29.32666704445508</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>23.70407865996783</v>
+      </c>
+      <c r="T17">
+        <v>9.54236773259192</v>
+      </c>
+      <c r="U17">
+        <v>0.9289498949448145</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>36.49793666804035</v>
+      </c>
+      <c r="X17">
+        <v>29.32666704445508</v>
+      </c>
+      <c r="Y17">
+        <v>63.93431218803814</v>
+      </c>
+      <c r="Z17">
+        <v>20.33654641756744</v>
+      </c>
+      <c r="AA17">
+        <v>15.72914139439442</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
         <v>8.10552062299247</v>
       </c>
-      <c r="Q17">
+      <c r="AG17">
         <v>10.36375654119508</v>
       </c>
-      <c r="R17">
+      <c r="AH17">
         <v>10.10979078240991</v>
       </c>
-      <c r="S17">
+      <c r="AI17">
         <v>25.98966273832176</v>
       </c>
-      <c r="T17">
+      <c r="AJ17">
         <v>17.92123902926979</v>
       </c>
-      <c r="U17">
+      <c r="AK17">
         <v>0.3321090691806154</v>
       </c>
-      <c r="V17">
+      <c r="AL17">
         <v>2.520121760252905</v>
       </c>
-      <c r="W17">
+      <c r="AM17">
         <v>7.452332296310941</v>
       </c>
-      <c r="X17">
+      <c r="AN17">
         <v>7.365007004770117</v>
       </c>
-      <c r="Y17">
+      <c r="AO17">
         <v>9.830692241496978</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
         <v>0.5176994313697829</v>
       </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
         <v>16.51352445499452</v>
       </c>
-      <c r="AD17">
+      <c r="AT17">
         <v>44.27750422331993</v>
       </c>
-      <c r="AE17">
+      <c r="AU17">
         <v>28.01978676530518</v>
       </c>
-      <c r="AF17">
+      <c r="AV17">
         <v>0.2436119123317014</v>
       </c>
-      <c r="AG17">
+      <c r="AW17">
         <v>10.43764112647833</v>
       </c>
+      <c r="AX17">
+        <v>14.50350416161903</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>15.91193157927125</v>
+      </c>
+      <c r="BA17">
+        <v>24.23360820373145</v>
+      </c>
+      <c r="BB17">
+        <v>30.78327465065346</v>
+      </c>
+      <c r="BC17">
+        <v>14.54814557712595</v>
+      </c>
+      <c r="BD17">
+        <v>4.335105896412543</v>
+      </c>
+      <c r="BE17">
+        <v>4.004844657766244</v>
+      </c>
+      <c r="BF17">
+        <v>6.777084346270009</v>
+      </c>
+      <c r="BG17">
+        <v>5.204399336870851</v>
+      </c>
+      <c r="BH17">
+        <v>17.31184896389958</v>
+      </c>
+      <c r="BI17">
+        <v>48.47213564639135</v>
+      </c>
+      <c r="BJ17">
+        <v>8.886074827965793</v>
+      </c>
+      <c r="BK17">
+        <v>0.1926315464732128</v>
+      </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
-        <v>179204</v>
+        <v>203625</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18">
         <v>202106</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>2021</v>
       </c>
-      <c r="E18">
-        <v>119578946</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>5495000437</v>
       </c>
-      <c r="G18" t="s">
-        <v>62</v>
-      </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J18">
+        <v>4183034000</v>
+      </c>
+      <c r="K18">
         <v>116.9939393939394</v>
       </c>
-      <c r="K18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18">
-        <v>4183034000</v>
+      <c r="L18" t="s">
+        <v>96</v>
       </c>
       <c r="M18">
         <v>112659921</v>
@@ -2345,96 +3959,186 @@
         <v>303665.5552560647</v>
       </c>
       <c r="P18">
+        <v>75.71029340150167</v>
+      </c>
+      <c r="Q18">
+        <v>24.28970659849833</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>18.83079115162881</v>
+      </c>
+      <c r="T18">
+        <v>23.33170792326403</v>
+      </c>
+      <c r="U18">
+        <v>16.02643650575611</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>17.51150116597365</v>
+      </c>
+      <c r="X18">
+        <v>24.28970659849833</v>
+      </c>
+      <c r="Y18">
+        <v>58.70156156731194</v>
+      </c>
+      <c r="Z18">
+        <v>36.71804255579053</v>
+      </c>
+      <c r="AA18">
+        <v>4.580395876897517</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
         <v>1.251795169641562</v>
       </c>
-      <c r="Q18">
+      <c r="AG18">
         <v>14.44236123669925</v>
       </c>
-      <c r="R18">
+      <c r="AH18">
         <v>15.94242955362981</v>
       </c>
-      <c r="S18">
+      <c r="AI18">
         <v>26.24963948590022</v>
       </c>
-      <c r="T18">
+      <c r="AJ18">
         <v>10.04629316063518</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
         <v>12.22324875463032</v>
       </c>
-      <c r="W18">
+      <c r="AM18">
         <v>16.31701659749966</v>
       </c>
-      <c r="X18">
+      <c r="AN18">
         <v>0.7585811756427558</v>
       </c>
-      <c r="Y18">
+      <c r="AO18">
         <v>2.768634865721236</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
         <v>0.1379931683069439</v>
       </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
         <v>14.27937843636514</v>
       </c>
-      <c r="AD18">
+      <c r="AT18">
         <v>51.7013053351067</v>
       </c>
-      <c r="AE18">
+      <c r="AU18">
         <v>20.28832012610767</v>
       </c>
-      <c r="AF18">
+      <c r="AV18">
         <v>8.191412715263665</v>
       </c>
-      <c r="AG18">
+      <c r="AW18">
         <v>5.401446873728946</v>
       </c>
+      <c r="AX18">
+        <v>21.14352142018634</v>
+      </c>
+      <c r="AY18">
+        <v>0.492832743953371</v>
+      </c>
+      <c r="AZ18">
+        <v>9.974245459217036</v>
+      </c>
+      <c r="BA18">
+        <v>35.03431437831382</v>
+      </c>
+      <c r="BB18">
+        <v>23.87234230725229</v>
+      </c>
+      <c r="BC18">
+        <v>9.492457000835284</v>
+      </c>
+      <c r="BD18">
+        <v>1.142628395327918</v>
+      </c>
+      <c r="BE18">
+        <v>2.148750763636698</v>
+      </c>
+      <c r="BF18">
+        <v>8.920272665556015</v>
+      </c>
+      <c r="BG18">
+        <v>0.8857685654688148</v>
+      </c>
+      <c r="BH18">
+        <v>13.00220687772362</v>
+      </c>
+      <c r="BI18">
+        <v>55.8830797688026</v>
+      </c>
+      <c r="BJ18">
+        <v>5.913992927440451</v>
+      </c>
+      <c r="BK18">
+        <v>5.994266195162696</v>
+      </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
-        <v>190011</v>
+        <v>215859</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19">
         <v>202107</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>2021</v>
       </c>
-      <c r="E19">
-        <v>119576684</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>5495000437</v>
       </c>
-      <c r="G19" t="s">
-        <v>62</v>
-      </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J19">
+        <v>4183034000</v>
+      </c>
+      <c r="K19">
         <v>116.9939393939394</v>
       </c>
-      <c r="K19" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19">
-        <v>4183034000</v>
+      <c r="L19" t="s">
+        <v>96</v>
       </c>
       <c r="M19">
         <v>54886627</v>
@@ -2446,96 +4150,186 @@
         <v>193262.7711267606</v>
       </c>
       <c r="P19">
+        <v>71.27915273405306</v>
+      </c>
+      <c r="Q19">
+        <v>28.72084726594695</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>18.79368086838348</v>
+      </c>
+      <c r="T19">
+        <v>14.56576599050257</v>
+      </c>
+      <c r="U19">
+        <v>11.35772530529158</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>26.56198056987543</v>
+      </c>
+      <c r="X19">
+        <v>28.72084726594695</v>
+      </c>
+      <c r="Y19">
+        <v>39.42655689281106</v>
+      </c>
+      <c r="Z19">
+        <v>46.5152193894152</v>
+      </c>
+      <c r="AA19">
+        <v>14.06789852781443</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
         <v>0.0481281139757413</v>
       </c>
-      <c r="Q19">
+      <c r="AG19">
         <v>1.383229009499891</v>
       </c>
-      <c r="R19">
+      <c r="AH19">
         <v>13.12847128900816</v>
       </c>
-      <c r="S19">
+      <c r="AI19">
         <v>31.26552986431467</v>
       </c>
-      <c r="T19">
+      <c r="AJ19">
         <v>20.21683062415185</v>
       </c>
-      <c r="U19">
+      <c r="AK19">
         <v>10.98090939619955</v>
       </c>
-      <c r="V19">
+      <c r="AL19">
         <v>2.598294796472008</v>
       </c>
-      <c r="W19">
+      <c r="AM19">
         <v>19.51912984395999</v>
       </c>
-      <c r="X19">
+      <c r="AN19">
         <v>0.444534674357016</v>
       </c>
-      <c r="Y19">
+      <c r="AO19">
         <v>0.4149423880611209</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
         <v>1.393172645861441</v>
       </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
         <v>19.34943050881957</v>
       </c>
-      <c r="AD19">
+      <c r="AT19">
         <v>56.80645070556075</v>
       </c>
-      <c r="AE19">
+      <c r="AU19">
         <v>2.926178609226615</v>
       </c>
-      <c r="AF19">
+      <c r="AV19">
         <v>18.71582398914767</v>
       </c>
-      <c r="AG19">
+      <c r="AW19">
         <v>0.8089435413839512</v>
       </c>
+      <c r="AX19">
+        <v>20.69961844640225</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0.8370487652666285</v>
+      </c>
+      <c r="BA19">
+        <v>34.57926873134325</v>
+      </c>
+      <c r="BB19">
+        <v>43.00936270013459</v>
+      </c>
+      <c r="BC19">
+        <v>0.8747013568532823</v>
+      </c>
+      <c r="BD19">
+        <v>5.988438588875209</v>
+      </c>
+      <c r="BE19">
+        <v>10.79684206919839</v>
+      </c>
+      <c r="BF19">
+        <v>2.796020101763586</v>
+      </c>
+      <c r="BG19">
+        <v>2.036811004072085</v>
+      </c>
+      <c r="BH19">
+        <v>14.16883322252614</v>
+      </c>
+      <c r="BI19">
+        <v>63.04720727272966</v>
+      </c>
+      <c r="BJ19">
+        <v>22.5276166214404</v>
+      </c>
+      <c r="BK19">
+        <v>6.478854477612551</v>
+      </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
-        <v>200838</v>
+        <v>228112</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20">
         <v>202108</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>2021</v>
       </c>
-      <c r="E20">
-        <v>119578946</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <v>5495000437</v>
       </c>
-      <c r="G20" t="s">
-        <v>62</v>
-      </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J20">
+        <v>4183034000</v>
+      </c>
+      <c r="K20">
         <v>116.9939393939394</v>
       </c>
-      <c r="K20" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20">
-        <v>4183034000</v>
+      <c r="L20" t="s">
+        <v>96</v>
       </c>
       <c r="M20">
         <v>87330560</v>
@@ -2547,96 +4341,186 @@
         <v>303231.1111111111</v>
       </c>
       <c r="P20">
+        <v>78.32618466067319</v>
+      </c>
+      <c r="Q20">
+        <v>21.67381533932681</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>19.84229828641887</v>
+      </c>
+      <c r="T20">
+        <v>42.24992770915474</v>
+      </c>
+      <c r="U20">
+        <v>12.30561778786257</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>3.928340877237018</v>
+      </c>
+      <c r="X20">
+        <v>21.67381533932681</v>
+      </c>
+      <c r="Y20">
+        <v>34.34086563145821</v>
+      </c>
+      <c r="Z20">
+        <v>47.53763067865361</v>
+      </c>
+      <c r="AA20">
+        <v>18.12122819091049</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
         <v>3.385621404924004</v>
       </c>
-      <c r="Q20">
+      <c r="AG20">
         <v>14.5258467675004</v>
       </c>
-      <c r="R20">
+      <c r="AH20">
         <v>24.33962895050713</v>
       </c>
-      <c r="S20">
+      <c r="AI20">
         <v>16.22969998543465</v>
       </c>
-      <c r="T20">
+      <c r="AJ20">
         <v>5.357842527518431</v>
       </c>
-      <c r="U20">
+      <c r="AK20">
         <v>0.2989163907800431</v>
       </c>
-      <c r="V20">
+      <c r="AL20">
         <v>6.855773220737392</v>
       </c>
-      <c r="W20">
+      <c r="AM20">
         <v>8.69740295493353</v>
       </c>
-      <c r="X20">
+      <c r="AN20">
         <v>9.402203991821422</v>
       </c>
-      <c r="Y20">
+      <c r="AO20">
         <v>10.92651280788764</v>
       </c>
-      <c r="Z20">
+      <c r="AP20">
         <v>1.95462470548683</v>
       </c>
-      <c r="AA20">
+      <c r="AQ20">
         <v>1.10859311654477</v>
       </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
         <v>9.23084362770604</v>
       </c>
-      <c r="AD20">
+      <c r="AT20">
         <v>57.39615150435311</v>
       </c>
-      <c r="AE20">
+      <c r="AU20">
         <v>14.92988008458895</v>
       </c>
-      <c r="AF20">
+      <c r="AV20">
         <v>10.69471900008428</v>
       </c>
-      <c r="AG20">
+      <c r="AW20">
         <v>4.69518796123602</v>
       </c>
+      <c r="AX20">
+        <v>24.68138000672388</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0.4304285707088103</v>
+      </c>
+      <c r="BA20">
+        <v>40.14673314679306</v>
+      </c>
+      <c r="BB20">
+        <v>29.27088889112814</v>
+      </c>
+      <c r="BC20">
+        <v>5.470569384646109</v>
+      </c>
+      <c r="BD20">
+        <v>5.921019959107097</v>
+      </c>
+      <c r="BE20">
+        <v>2.790931793406569</v>
+      </c>
+      <c r="BF20">
+        <v>15.03467499257992</v>
+      </c>
+      <c r="BG20">
+        <v>0.7730501313629501</v>
+      </c>
+      <c r="BH20">
+        <v>1.039005812398317</v>
+      </c>
+      <c r="BI20">
+        <v>55.80517208638076</v>
+      </c>
+      <c r="BJ20">
+        <v>15.00803237263107</v>
+      </c>
+      <c r="BK20">
+        <v>2.820105296473537</v>
+      </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
-        <v>211704</v>
+        <v>240406</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21">
         <v>202109</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2021</v>
       </c>
-      <c r="E21">
-        <v>119578946</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
         <v>5495000437</v>
       </c>
-      <c r="G21" t="s">
-        <v>62</v>
-      </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J21">
+        <v>4183034000</v>
+      </c>
+      <c r="K21">
         <v>116.9939393939394</v>
       </c>
-      <c r="K21" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21">
-        <v>4183034000</v>
+      <c r="L21" t="s">
+        <v>96</v>
       </c>
       <c r="M21">
         <v>115372882</v>
@@ -2648,96 +4532,186 @@
         <v>486805.4092827004</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>91.41797570004361</v>
       </c>
       <c r="Q21">
+        <v>8.582055495848669</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10.23154248014711</v>
+      </c>
+      <c r="T21">
+        <v>14.09303659918975</v>
+      </c>
+      <c r="U21">
+        <v>36.04897038629927</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>31.0444262344075</v>
+      </c>
+      <c r="X21">
+        <v>8.582055495848669</v>
+      </c>
+      <c r="Y21">
+        <v>45.61505015225328</v>
+      </c>
+      <c r="Z21">
+        <v>33.69146978923521</v>
+      </c>
+      <c r="AA21">
+        <v>20.6934800585115</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
         <v>21.10395829602315</v>
       </c>
-      <c r="R21">
+      <c r="AH21">
         <v>20.12523389456458</v>
       </c>
-      <c r="S21">
+      <c r="AI21">
         <v>26.11340393455717</v>
       </c>
-      <c r="T21">
+      <c r="AJ21">
         <v>13.12602767329675</v>
       </c>
-      <c r="U21">
+      <c r="AK21">
         <v>0.01550435846787636</v>
       </c>
-      <c r="V21">
+      <c r="AL21">
         <v>8.971923696939459</v>
       </c>
-      <c r="W21">
+      <c r="AM21">
         <v>5.140135231951646</v>
       </c>
-      <c r="X21">
+      <c r="AN21">
         <v>0.04875917964847234</v>
       </c>
-      <c r="Y21">
+      <c r="AO21">
         <v>5.355022538658607</v>
       </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>3.165646456504397</v>
       </c>
-      <c r="AD21">
+      <c r="AT21">
         <v>52.63397919278813</v>
       </c>
-      <c r="AE21">
+      <c r="AU21">
         <v>27.21483521404969</v>
       </c>
-      <c r="AF21">
+      <c r="AV21">
         <v>9.425636157377086</v>
       </c>
-      <c r="AG21">
+      <c r="AW21">
         <v>7.559902979280693</v>
       </c>
+      <c r="AX21">
+        <v>20.810429727152</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>22.60924771628744</v>
+      </c>
+      <c r="BA21">
+        <v>23.14092901068381</v>
+      </c>
+      <c r="BB21">
+        <v>23.24416308435461</v>
+      </c>
+      <c r="BC21">
+        <v>10.19519926562985</v>
+      </c>
+      <c r="BD21">
+        <v>5.715455997363401</v>
+      </c>
+      <c r="BE21">
+        <v>0.2392512985850522</v>
+      </c>
+      <c r="BF21">
+        <v>5.109563257507947</v>
+      </c>
+      <c r="BG21">
+        <v>0.2344059346632253</v>
+      </c>
+      <c r="BH21">
+        <v>6.573483939319466</v>
+      </c>
+      <c r="BI21">
+        <v>61.81240223296146</v>
+      </c>
+      <c r="BJ21">
+        <v>5.950849304431869</v>
+      </c>
+      <c r="BK21">
+        <v>2.925580631677382</v>
+      </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
-        <v>222607</v>
+        <v>252737</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22">
         <v>202110</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>2021</v>
       </c>
-      <c r="E22">
-        <v>119578946</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>5495000437</v>
       </c>
-      <c r="G22" t="s">
-        <v>62</v>
-      </c>
       <c r="H22" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J22">
+        <v>4183034000</v>
+      </c>
+      <c r="K22">
         <v>116.9939393939394</v>
       </c>
-      <c r="K22" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22">
-        <v>4183034000</v>
+      <c r="L22" t="s">
+        <v>96</v>
       </c>
       <c r="M22">
         <v>87915985</v>
@@ -2749,96 +4723,186 @@
         <v>273031.0093167702</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>86.37921787886469</v>
       </c>
       <c r="Q22">
+        <v>13.62078212113531</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>4.220632050587843</v>
+      </c>
+      <c r="T22">
+        <v>11.06791233528237</v>
+      </c>
+      <c r="U22">
+        <v>17.40467809238559</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>53.91341190057758</v>
+      </c>
+      <c r="X22">
+        <v>13.39336562116662</v>
+      </c>
+      <c r="Y22">
+        <v>51.06844268536604</v>
+      </c>
+      <c r="Z22">
+        <v>35.985646233731</v>
+      </c>
+      <c r="AA22">
+        <v>12.94626651967785</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <v>3.665496163183521</v>
       </c>
-      <c r="R22">
+      <c r="AH22">
         <v>19.66779546802552</v>
       </c>
-      <c r="S22">
+      <c r="AI22">
         <v>42.81410133947768</v>
       </c>
-      <c r="T22">
+      <c r="AJ22">
         <v>8.349580245276215</v>
       </c>
-      <c r="U22">
+      <c r="AK22">
         <v>0.745698785038921</v>
       </c>
-      <c r="V22">
+      <c r="AL22">
         <v>9.64456122512874</v>
       </c>
-      <c r="W22">
+      <c r="AM22">
         <v>3.669210295488358</v>
       </c>
-      <c r="X22">
+      <c r="AN22">
         <v>10.64108775497425</v>
       </c>
-      <c r="Y22">
+      <c r="AO22">
         <v>0.7928241621816555</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
         <v>0.1832466632774461</v>
       </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
         <v>3.929231734137996</v>
       </c>
-      <c r="AD22">
+      <c r="AT22">
         <v>63.62116449130382</v>
       </c>
-      <c r="AE22">
+      <c r="AU22">
         <v>8.802566898385997</v>
       </c>
-      <c r="AF22">
+      <c r="AV22">
         <v>18.45318234732853</v>
       </c>
-      <c r="AG22">
+      <c r="AW22">
         <v>5.000607865566199</v>
       </c>
+      <c r="AX22">
+        <v>8.451629213959214</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>3.959184019834391</v>
+      </c>
+      <c r="BA22">
+        <v>48.94108566434193</v>
+      </c>
+      <c r="BB22">
+        <v>37.96870962317034</v>
+      </c>
+      <c r="BC22">
+        <v>0.689036039919248</v>
+      </c>
+      <c r="BD22">
+        <v>23.33877877612359</v>
+      </c>
+      <c r="BE22">
+        <v>0.1832466632774461</v>
+      </c>
+      <c r="BF22">
+        <v>4.873570989394023</v>
+      </c>
+      <c r="BG22">
+        <v>1.19482541656105</v>
+      </c>
+      <c r="BH22">
+        <v>12.64474175259482</v>
+      </c>
+      <c r="BI22">
+        <v>70.58537445892233</v>
+      </c>
+      <c r="BJ22">
+        <v>5.792414081466527</v>
+      </c>
+      <c r="BK22">
+        <v>2.946207040733264</v>
+      </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:63">
       <c r="A23" s="1">
-        <v>233550</v>
+        <v>265111</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23">
         <v>202111</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>2021</v>
       </c>
-      <c r="E23">
-        <v>119576684</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
         <v>5495000437</v>
       </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J23">
+        <v>4183034000</v>
+      </c>
+      <c r="K23">
         <v>116.9939393939394</v>
       </c>
-      <c r="K23" t="s">
-        <v>68</v>
-      </c>
-      <c r="L23">
-        <v>4183034000</v>
+      <c r="L23" t="s">
+        <v>96</v>
       </c>
       <c r="M23">
         <v>99159953</v>
@@ -2850,96 +4914,186 @@
         <v>315796.0286624204</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>69.87124143191154</v>
       </c>
       <c r="Q23">
+        <v>30.12875856808847</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>4.929401996993685</v>
+      </c>
+      <c r="T23">
+        <v>9.711943013930229</v>
+      </c>
+      <c r="U23">
+        <v>34.88759163863258</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>20.34212810225918</v>
+      </c>
+      <c r="X23">
+        <v>30.12875856808847</v>
+      </c>
+      <c r="Y23">
+        <v>50.36127844957733</v>
+      </c>
+      <c r="Z23">
+        <v>26.03794780156865</v>
+      </c>
+      <c r="AA23">
+        <v>23.60059706875819</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
         <v>9.936641676806763</v>
       </c>
-      <c r="R23">
+      <c r="AH23">
         <v>33.66978256524587</v>
       </c>
-      <c r="S23">
+      <c r="AI23">
         <v>14.91695942070485</v>
       </c>
-      <c r="T23">
+      <c r="AJ23">
         <v>14.67603993680796</v>
       </c>
-      <c r="U23">
+      <c r="AK23">
         <v>0.643853214311225</v>
       </c>
-      <c r="V23">
+      <c r="AL23">
         <v>0.3243818532265743</v>
       </c>
-      <c r="W23">
+      <c r="AM23">
         <v>6.27222560865877</v>
       </c>
-      <c r="X23">
+      <c r="AN23">
         <v>6.907844222556257</v>
       </c>
-      <c r="Y23">
+      <c r="AO23">
         <v>12.65227150168173</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
         <v>7.366926607155612</v>
       </c>
-      <c r="AD23">
+      <c r="AT23">
         <v>45.29384527320218</v>
       </c>
-      <c r="AE23">
+      <c r="AU23">
         <v>27.9732824193654</v>
       </c>
-      <c r="AF23">
+      <c r="AV23">
         <v>16.33801903415585</v>
       </c>
-      <c r="AG23">
+      <c r="AW23">
         <v>3.018280026312639</v>
       </c>
+      <c r="AX23">
+        <v>5.470048228643272</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>15.99360203175974</v>
+      </c>
+      <c r="BA23">
+        <v>37.442645063073</v>
+      </c>
+      <c r="BB23">
+        <v>33.41186851147458</v>
+      </c>
+      <c r="BC23">
+        <v>7.691659484953567</v>
+      </c>
+      <c r="BD23">
+        <v>6.640564255208954</v>
+      </c>
+      <c r="BE23">
+        <v>0.339330297282412</v>
+      </c>
+      <c r="BF23">
+        <v>0.5893991942493156</v>
+      </c>
+      <c r="BG23">
+        <v>4.602473054217764</v>
+      </c>
+      <c r="BH23">
+        <v>6.635794359745209</v>
+      </c>
+      <c r="BI23">
+        <v>63.91053284303191</v>
+      </c>
+      <c r="BJ23">
+        <v>0.519439481783538</v>
+      </c>
+      <c r="BK23">
+        <v>5.206359549202287</v>
+      </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:63">
       <c r="A24" s="1">
-        <v>244531</v>
+        <v>277522</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24">
         <v>202112</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>2021</v>
       </c>
-      <c r="E24">
-        <v>119576684</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
         <v>5495000437</v>
       </c>
-      <c r="G24" t="s">
-        <v>62</v>
-      </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J24">
+        <v>4183034000</v>
+      </c>
+      <c r="K24">
         <v>116.9939393939394</v>
       </c>
-      <c r="K24" t="s">
-        <v>68</v>
-      </c>
-      <c r="L24">
-        <v>4183034000</v>
+      <c r="L24" t="s">
+        <v>96</v>
       </c>
       <c r="M24">
         <v>154519799</v>
@@ -2951,96 +5105,186 @@
         <v>419890.7581521739</v>
       </c>
       <c r="P24">
+        <v>80.51669686063985</v>
+      </c>
+      <c r="Q24">
+        <v>19.48330313936016</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>19.51963957977968</v>
+      </c>
+      <c r="T24">
+        <v>9.17265447517182</v>
+      </c>
+      <c r="U24">
+        <v>26.41381034387704</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>25.40065471202173</v>
+      </c>
+      <c r="X24">
+        <v>19.48330313936016</v>
+      </c>
+      <c r="Y24">
+        <v>39.25816253398052</v>
+      </c>
+      <c r="Z24">
+        <v>38.24301029397533</v>
+      </c>
+      <c r="AA24">
+        <v>22.49882717204414</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
         <v>0.1888172460022421</v>
       </c>
-      <c r="Q24">
+      <c r="AG24">
         <v>4.140044567751477</v>
       </c>
-      <c r="R24">
+      <c r="AH24">
         <v>41.96424149393308</v>
       </c>
-      <c r="S24">
+      <c r="AI24">
         <v>25.51688676627129</v>
       </c>
-      <c r="T24">
+      <c r="AJ24">
         <v>10.59038658230458</v>
       </c>
-      <c r="U24">
+      <c r="AK24">
         <v>0.05637180533738593</v>
       </c>
-      <c r="V24">
+      <c r="AL24">
         <v>1.537096523986548</v>
       </c>
-      <c r="W24">
+      <c r="AM24">
         <v>0.8997156342405025</v>
       </c>
-      <c r="X24">
+      <c r="AN24">
         <v>8.091218118915625</v>
       </c>
-      <c r="Y24">
+      <c r="AO24">
         <v>7.025221261257272</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
         <v>0.1888172460022421</v>
       </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
         <v>20.92386411446212</v>
       </c>
-      <c r="AD24">
+      <c r="AT24">
         <v>24.75231633882723</v>
       </c>
-      <c r="AE24">
+      <c r="AU24">
         <v>27.26074772573319</v>
       </c>
-      <c r="AF24">
+      <c r="AV24">
         <v>13.3688526109201</v>
       </c>
-      <c r="AG24">
+      <c r="AW24">
         <v>13.50540196405511</v>
       </c>
+      <c r="AX24">
+        <v>6.093841830586384</v>
+      </c>
+      <c r="AY24">
+        <v>0.3776344920044842</v>
+      </c>
+      <c r="AZ24">
+        <v>1.665544870143146</v>
+      </c>
+      <c r="BA24">
+        <v>43.90546881568233</v>
+      </c>
+      <c r="BB24">
+        <v>36.44036357522054</v>
+      </c>
+      <c r="BC24">
+        <v>11.50714641636312</v>
+      </c>
+      <c r="BD24">
+        <v>7.99988858062131</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0.3730148953921433</v>
+      </c>
+      <c r="BG24">
+        <v>4.44093519957271</v>
+      </c>
+      <c r="BH24">
+        <v>25.76084678727805</v>
+      </c>
+      <c r="BI24">
+        <v>56.45855588732677</v>
+      </c>
+      <c r="BJ24">
+        <v>8.520542569434744</v>
+      </c>
+      <c r="BK24">
+        <v>8.483814945293839</v>
+      </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:63">
       <c r="A25" s="1">
-        <v>255515</v>
+        <v>289934</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25">
         <v>202201</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>2022</v>
       </c>
-      <c r="E25">
-        <v>119576684</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <v>5495000437</v>
       </c>
-      <c r="G25" t="s">
-        <v>62</v>
-      </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J25">
+        <v>4183034000</v>
+      </c>
+      <c r="K25">
         <v>116.9939393939394</v>
       </c>
-      <c r="K25" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25">
-        <v>4183034000</v>
+      <c r="L25" t="s">
+        <v>96</v>
       </c>
       <c r="M25">
         <v>90487096</v>
@@ -3052,96 +5296,186 @@
         <v>292838.498381877</v>
       </c>
       <c r="P25">
+        <v>70.34384836242286</v>
+      </c>
+      <c r="Q25">
+        <v>29.65615163757714</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>20.10893517214874</v>
+      </c>
+      <c r="T25">
+        <v>6.170077782361365</v>
+      </c>
+      <c r="U25">
+        <v>34.87496144068984</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>9.179873967222907</v>
+      </c>
+      <c r="X25">
+        <v>29.65615163757714</v>
+      </c>
+      <c r="Y25">
+        <v>62.21260042912638</v>
+      </c>
+      <c r="Z25">
+        <v>27.90031745344109</v>
+      </c>
+      <c r="AA25">
+        <v>9.887082117432522</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
         <v>2.302630878329878</v>
       </c>
-      <c r="Q25">
+      <c r="AG25">
         <v>6.962563245703011</v>
       </c>
-      <c r="R25">
+      <c r="AH25">
         <v>20.26908125087803</v>
       </c>
-      <c r="S25">
+      <c r="AI25">
         <v>27.42531541381326</v>
       </c>
-      <c r="T25">
+      <c r="AJ25">
         <v>19.50835866541678</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
         <v>2.361926094080862</v>
       </c>
-      <c r="W25">
+      <c r="AM25">
         <v>4.462145465691594</v>
       </c>
-      <c r="X25">
+      <c r="AN25">
         <v>2.721072732845797</v>
       </c>
-      <c r="Y25">
+      <c r="AO25">
         <v>13.99678878919929</v>
       </c>
-      <c r="Z25">
+      <c r="AP25">
         <v>0.5240070891434067</v>
       </c>
-      <c r="AA25">
+      <c r="AQ25">
         <v>2.302630878329878</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
         <v>0.6672516576286192</v>
       </c>
-      <c r="AD25">
+      <c r="AT25">
         <v>27.58606304174022</v>
       </c>
-      <c r="AE25">
+      <c r="AU25">
         <v>38.78115434094603</v>
       </c>
-      <c r="AF25">
+      <c r="AV25">
         <v>16.15143910044367</v>
       </c>
-      <c r="AG25">
+      <c r="AW25">
         <v>13.99733642772667</v>
       </c>
+      <c r="AX25">
+        <v>10.41642558359924</v>
+      </c>
+      <c r="AY25">
+        <v>6.784677598450059</v>
+      </c>
+      <c r="AZ25">
+        <v>2.857799296155996</v>
+      </c>
+      <c r="BA25">
+        <v>36.29303534660897</v>
+      </c>
+      <c r="BB25">
+        <v>26.85188483140181</v>
+      </c>
+      <c r="BC25">
+        <v>16.79617734378392</v>
+      </c>
+      <c r="BD25">
+        <v>6.99207467106691</v>
+      </c>
+      <c r="BE25">
+        <v>2.302630878329878</v>
+      </c>
+      <c r="BF25">
+        <v>0.3162411506719146</v>
+      </c>
+      <c r="BG25">
+        <v>1.097902784724134</v>
+      </c>
+      <c r="BH25">
+        <v>14.18341502593917</v>
+      </c>
+      <c r="BI25">
+        <v>56.22072732845796</v>
+      </c>
+      <c r="BJ25">
+        <v>7.576040497531272</v>
+      </c>
+      <c r="BK25">
+        <v>7.304698561660105</v>
+      </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:63">
       <c r="A26" s="1">
-        <v>266510</v>
+        <v>302338</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26">
         <v>202202</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>2022</v>
       </c>
-      <c r="E26">
-        <v>119576684</v>
-      </c>
-      <c r="F26">
+      <c r="G26">
         <v>5495000437</v>
       </c>
-      <c r="G26" t="s">
-        <v>62</v>
-      </c>
       <c r="H26" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J26">
+        <v>4183034000</v>
+      </c>
+      <c r="K26">
         <v>116.9939393939394</v>
       </c>
-      <c r="K26" t="s">
-        <v>68</v>
-      </c>
-      <c r="L26">
-        <v>4183034000</v>
+      <c r="L26" t="s">
+        <v>96</v>
       </c>
       <c r="M26">
         <v>106477990</v>
@@ -3153,96 +5487,186 @@
         <v>438181.0288065844</v>
       </c>
       <c r="P26">
+        <v>79.57240131599028</v>
+      </c>
+      <c r="Q26">
+        <v>20.42759868400972</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>17.46575799505607</v>
+      </c>
+      <c r="T26">
+        <v>26.01874887382829</v>
+      </c>
+      <c r="U26">
+        <v>27.16767653765816</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>8.920217909447764</v>
+      </c>
+      <c r="X26">
+        <v>20.42759868400972</v>
+      </c>
+      <c r="Y26">
+        <v>51.7379867779247</v>
+      </c>
+      <c r="Z26">
+        <v>32.84891553531392</v>
+      </c>
+      <c r="AA26">
+        <v>15.41309768676136</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
         <v>3.665979812729372</v>
       </c>
-      <c r="Q26">
+      <c r="AG26">
         <v>6.762584014217397</v>
       </c>
-      <c r="R26">
+      <c r="AH26">
         <v>10.63833378898306</v>
       </c>
-      <c r="S26">
+      <c r="AI26">
         <v>32.97384022294185</v>
       </c>
-      <c r="T26">
+      <c r="AJ26">
         <v>18.90926372069946</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
         <v>0.1498356871687754</v>
       </c>
-      <c r="W26">
+      <c r="AM26">
         <v>8.955117954799862</v>
       </c>
-      <c r="X26">
+      <c r="AN26">
         <v>5.711393530625437</v>
       </c>
-      <c r="Y26">
+      <c r="AO26">
         <v>12.24364031364604</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
         <v>4.47509252344076</v>
       </c>
-      <c r="AD26">
+      <c r="AT26">
         <v>63.76245726126123</v>
       </c>
-      <c r="AE26">
+      <c r="AU26">
         <v>13.12560619598473</v>
       </c>
-      <c r="AF26">
+      <c r="AV26">
         <v>6.432945502446091</v>
       </c>
-      <c r="AG26">
+      <c r="AW26">
         <v>12.20389851686719</v>
       </c>
+      <c r="AX26">
+        <v>11.05787371305563</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>1.91536872681387</v>
+      </c>
+      <c r="BA26">
+        <v>35.49620007083154</v>
+      </c>
+      <c r="BB26">
+        <v>44.91053558092147</v>
+      </c>
+      <c r="BC26">
+        <v>6.620021908377496</v>
+      </c>
+      <c r="BD26">
+        <v>14.87368921295377</v>
+      </c>
+      <c r="BE26">
+        <v>0.2697042369037959</v>
+      </c>
+      <c r="BF26">
+        <v>3.396275575825577</v>
+      </c>
+      <c r="BG26">
+        <v>5.691040647931088</v>
+      </c>
+      <c r="BH26">
+        <v>26.25342983540542</v>
+      </c>
+      <c r="BI26">
+        <v>73.15964829163286</v>
+      </c>
+      <c r="BJ26">
+        <v>2.784675879024388</v>
+      </c>
+      <c r="BK26">
+        <v>8.091127107113874</v>
+      </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:63">
       <c r="A27" s="1">
-        <v>287498</v>
+        <v>326011</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27">
         <v>202203</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>2022</v>
       </c>
-      <c r="E27">
-        <v>119578946</v>
-      </c>
-      <c r="F27">
+      <c r="G27">
         <v>5495000437</v>
       </c>
-      <c r="G27" t="s">
-        <v>62</v>
-      </c>
       <c r="H27" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J27">
+        <v>4183034000</v>
+      </c>
+      <c r="K27">
         <v>116.9939393939394</v>
       </c>
-      <c r="K27" t="s">
-        <v>68</v>
-      </c>
-      <c r="L27">
-        <v>4183034000</v>
+      <c r="L27" t="s">
+        <v>96</v>
       </c>
       <c r="M27">
         <v>3819641</v>
@@ -3254,96 +5678,186 @@
         <v>372500</v>
       </c>
       <c r="P27">
+        <v>100</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>100</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>92.62</v>
+      </c>
+      <c r="Z27">
         <v>7.38</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>7.38</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
         <v>92.62</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
         <v>7.38</v>
       </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
         <v>92.62</v>
       </c>
-      <c r="AG27">
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>7.38</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>92.62</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>92.62</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>7.38</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:63">
       <c r="A28" s="1">
-        <v>287499</v>
+        <v>326012</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28">
         <v>202203</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>2022</v>
       </c>
-      <c r="E28">
-        <v>126199678</v>
-      </c>
-      <c r="F28">
+      <c r="G28">
         <v>4242001727</v>
       </c>
-      <c r="G28" t="s">
-        <v>62</v>
-      </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J28">
+        <v>4183034000</v>
+      </c>
+      <c r="K28">
         <v>116.9939393939394</v>
       </c>
-      <c r="K28" t="s">
-        <v>68</v>
-      </c>
-      <c r="L28">
-        <v>4183034000</v>
+      <c r="L28" t="s">
+        <v>96</v>
       </c>
       <c r="M28">
         <v>94234134</v>
@@ -3355,96 +5869,186 @@
         <v>453141</v>
       </c>
       <c r="P28">
+        <v>94.69</v>
+      </c>
+      <c r="Q28">
+        <v>5.31</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>27.37</v>
+      </c>
+      <c r="T28">
+        <v>15.21</v>
+      </c>
+      <c r="U28">
+        <v>29</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>23.11</v>
+      </c>
+      <c r="X28">
+        <v>5.31</v>
+      </c>
+      <c r="Y28">
+        <v>43.85</v>
+      </c>
+      <c r="Z28">
+        <v>26.79</v>
+      </c>
+      <c r="AA28">
+        <v>29.36</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
         <v>7.56</v>
       </c>
-      <c r="Q28">
+      <c r="AG28">
         <v>0.43</v>
       </c>
-      <c r="R28">
+      <c r="AH28">
         <v>11.07</v>
       </c>
-      <c r="S28">
+      <c r="AI28">
         <v>5.19</v>
       </c>
-      <c r="T28">
+      <c r="AJ28">
         <v>22.48</v>
       </c>
-      <c r="U28">
+      <c r="AK28">
         <v>6.81</v>
       </c>
-      <c r="V28">
+      <c r="AL28">
         <v>3.01</v>
       </c>
-      <c r="W28">
+      <c r="AM28">
         <v>4.31</v>
       </c>
-      <c r="X28">
+      <c r="AN28">
         <v>25.92</v>
       </c>
-      <c r="Y28">
+      <c r="AO28">
         <v>13.21</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
         <v>0.16</v>
       </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
         <v>10.71</v>
       </c>
-      <c r="AD28">
+      <c r="AT28">
         <v>42.89</v>
       </c>
-      <c r="AE28">
+      <c r="AU28">
         <v>22.18</v>
       </c>
-      <c r="AF28">
+      <c r="AV28">
         <v>15.1</v>
       </c>
-      <c r="AG28">
+      <c r="AW28">
         <v>8.970000000000001</v>
       </c>
+      <c r="AX28">
+        <v>21.5</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="BA28">
+        <v>27.41</v>
+      </c>
+      <c r="BB28">
+        <v>15.43</v>
+      </c>
+      <c r="BC28">
+        <v>26.94</v>
+      </c>
+      <c r="BD28">
+        <v>0.73</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>17.09</v>
+      </c>
+      <c r="BG28">
+        <v>1.24</v>
+      </c>
+      <c r="BH28">
+        <v>22.58</v>
+      </c>
+      <c r="BI28">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:63">
       <c r="A29" s="1">
-        <v>298609</v>
+        <v>338568</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29">
         <v>202204</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>2022</v>
       </c>
-      <c r="E29">
-        <v>126199678</v>
-      </c>
-      <c r="F29">
+      <c r="G29">
         <v>4242001727</v>
       </c>
-      <c r="G29" t="s">
-        <v>62</v>
-      </c>
       <c r="H29" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J29">
+        <v>4183034000</v>
+      </c>
+      <c r="K29">
         <v>116.9939393939394</v>
       </c>
-      <c r="K29" t="s">
-        <v>68</v>
-      </c>
-      <c r="L29">
-        <v>4183034000</v>
+      <c r="L29" t="s">
+        <v>96</v>
       </c>
       <c r="M29">
         <v>156000124</v>
@@ -3456,96 +6060,186 @@
         <v>374189</v>
       </c>
       <c r="P29">
+        <v>86.44</v>
+      </c>
+      <c r="Q29">
+        <v>13.56</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>23.09</v>
+      </c>
+      <c r="T29">
+        <v>10.92</v>
+      </c>
+      <c r="U29">
+        <v>6.79</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>45.63</v>
+      </c>
+      <c r="X29">
+        <v>13.56</v>
+      </c>
+      <c r="Y29">
+        <v>30.7</v>
+      </c>
+      <c r="Z29">
+        <v>33.92</v>
+      </c>
+      <c r="AA29">
+        <v>35.38</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
         <v>0.11</v>
       </c>
-      <c r="Q29">
+      <c r="AG29">
         <v>21.12</v>
       </c>
-      <c r="R29">
+      <c r="AH29">
         <v>29.36</v>
       </c>
-      <c r="S29">
+      <c r="AI29">
         <v>14.26</v>
       </c>
-      <c r="T29">
+      <c r="AJ29">
         <v>11.56</v>
       </c>
-      <c r="U29">
+      <c r="AK29">
         <v>5.58</v>
       </c>
-      <c r="V29">
+      <c r="AL29">
         <v>0.21</v>
       </c>
-      <c r="W29">
+      <c r="AM29">
         <v>8.08</v>
       </c>
-      <c r="X29">
+      <c r="AN29">
         <v>4.16</v>
       </c>
-      <c r="Y29">
+      <c r="AO29">
         <v>5.56</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
         <v>0.21</v>
       </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
         <v>1.27</v>
       </c>
-      <c r="AD29">
+      <c r="AT29">
         <v>55.03</v>
       </c>
-      <c r="AE29">
+      <c r="AU29">
         <v>20.05</v>
       </c>
-      <c r="AF29">
+      <c r="AV29">
         <v>17.4</v>
       </c>
-      <c r="AG29">
+      <c r="AW29">
         <v>6.05</v>
       </c>
+      <c r="AX29">
+        <v>18.74</v>
+      </c>
+      <c r="AY29">
+        <v>6.46</v>
+      </c>
+      <c r="AZ29">
+        <v>10.82</v>
+      </c>
+      <c r="BA29">
+        <v>39.89</v>
+      </c>
+      <c r="BB29">
+        <v>13.67</v>
+      </c>
+      <c r="BC29">
+        <v>10.41</v>
+      </c>
+      <c r="BD29">
+        <v>7.23</v>
+      </c>
+      <c r="BE29">
+        <v>0.11</v>
+      </c>
+      <c r="BF29">
+        <v>6.2</v>
+      </c>
+      <c r="BG29">
+        <v>2.81</v>
+      </c>
+      <c r="BH29">
+        <v>14.02</v>
+      </c>
+      <c r="BI29">
+        <v>81.02</v>
+      </c>
+      <c r="BJ29">
+        <v>6.1</v>
+      </c>
+      <c r="BK29">
+        <v>13.6</v>
+      </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:63">
       <c r="A30" s="1">
-        <v>309733</v>
+        <v>351196</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30">
         <v>202205</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>2022</v>
       </c>
-      <c r="E30">
-        <v>126199678</v>
-      </c>
-      <c r="F30">
+      <c r="G30">
         <v>4242001727</v>
       </c>
-      <c r="G30" t="s">
-        <v>62</v>
-      </c>
       <c r="H30" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J30">
+        <v>4183034000</v>
+      </c>
+      <c r="K30">
         <v>116.9939393939394</v>
       </c>
-      <c r="K30" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30">
-        <v>4183034000</v>
+      <c r="L30" t="s">
+        <v>96</v>
       </c>
       <c r="M30">
         <v>209574050</v>
@@ -3557,58 +6251,148 @@
         <v>432947</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="Q30">
+        <v>7.54</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>39.76</v>
+      </c>
+      <c r="T30">
+        <v>10.18</v>
+      </c>
+      <c r="U30">
+        <v>18.36</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>24.15</v>
+      </c>
+      <c r="X30">
+        <v>7.54</v>
+      </c>
+      <c r="Y30">
+        <v>49.42</v>
+      </c>
+      <c r="Z30">
+        <v>37.47</v>
+      </c>
+      <c r="AA30">
+        <v>13.11</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
         <v>11.01</v>
       </c>
-      <c r="R30">
+      <c r="AH30">
         <v>20.28</v>
       </c>
-      <c r="S30">
+      <c r="AI30">
         <v>29.82</v>
       </c>
-      <c r="T30">
+      <c r="AJ30">
         <v>14.92</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
         <v>3.38</v>
       </c>
-      <c r="W30">
+      <c r="AM30">
         <v>6.3</v>
       </c>
-      <c r="X30">
+      <c r="AN30">
         <v>13.86</v>
       </c>
-      <c r="Y30">
+      <c r="AO30">
         <v>0.43</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
         <v>11.31</v>
       </c>
-      <c r="AD30">
+      <c r="AT30">
         <v>31.73</v>
       </c>
-      <c r="AE30">
+      <c r="AU30">
         <v>25.98</v>
       </c>
-      <c r="AF30">
+      <c r="AV30">
         <v>12.18</v>
       </c>
-      <c r="AG30">
+      <c r="AW30">
         <v>18.73</v>
+      </c>
+      <c r="AX30">
+        <v>2.98</v>
+      </c>
+      <c r="AY30">
+        <v>0.54</v>
+      </c>
+      <c r="AZ30">
+        <v>14.64</v>
+      </c>
+      <c r="BA30">
+        <v>52.25</v>
+      </c>
+      <c r="BB30">
+        <v>20.88</v>
+      </c>
+      <c r="BC30">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="BD30">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>2.46</v>
+      </c>
+      <c r="BG30">
+        <v>4.28</v>
+      </c>
+      <c r="BH30">
+        <v>13.98</v>
+      </c>
+      <c r="BI30">
+        <v>55.5</v>
+      </c>
+      <c r="BJ30">
+        <v>11.5</v>
+      </c>
+      <c r="BK30">
+        <v>5.7</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_4183034000.xlsx
+++ b/시장분석용_정보/시장분석용_4183034000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="37">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -530,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV30"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,64 +582,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>2379</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -699,10 +603,10 @@
         <v>1309077849</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <v>4183034000</v>
@@ -711,7 +615,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L2">
         <v>8640077</v>
@@ -723,117 +627,69 @@
         <v>13673</v>
       </c>
       <c r="O2">
-        <v>65.37</v>
+        <v>6.78</v>
       </c>
       <c r="P2">
-        <v>34.63</v>
+        <v>15.32</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="R2">
-        <v>7.63</v>
+        <v>14.34</v>
       </c>
       <c r="S2">
-        <v>9.24</v>
+        <v>6.87</v>
       </c>
       <c r="T2">
-        <v>23.7</v>
+        <v>1.31</v>
       </c>
       <c r="U2">
-        <v>11.43</v>
+        <v>4.29</v>
       </c>
       <c r="V2">
-        <v>13.37</v>
+        <v>7.4</v>
       </c>
       <c r="W2">
-        <v>34.63</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="X2">
-        <v>40.44</v>
+        <v>31</v>
       </c>
       <c r="Y2">
-        <v>34.74</v>
+        <v>1.63</v>
       </c>
       <c r="Z2">
-        <v>24.82</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>56.13</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>23.34</v>
       </c>
       <c r="AE2">
-        <v>6.78</v>
+        <v>3.19</v>
       </c>
       <c r="AF2">
-        <v>15.32</v>
-      </c>
-      <c r="AG2">
-        <v>3.81</v>
-      </c>
-      <c r="AH2">
-        <v>14.34</v>
-      </c>
-      <c r="AI2">
-        <v>6.87</v>
-      </c>
-      <c r="AJ2">
-        <v>1.31</v>
-      </c>
-      <c r="AK2">
-        <v>4.29</v>
-      </c>
-      <c r="AL2">
-        <v>7.4</v>
-      </c>
-      <c r="AM2">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AN2">
-        <v>31</v>
-      </c>
-      <c r="AO2">
-        <v>1.63</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>13.5</v>
-      </c>
-      <c r="AS2">
-        <v>56.13</v>
-      </c>
-      <c r="AT2">
-        <v>23.34</v>
-      </c>
-      <c r="AU2">
-        <v>3.19</v>
-      </c>
-      <c r="AV2">
         <v>2.2</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>14143</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -845,10 +701,10 @@
         <v>1309077849</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I3">
         <v>4183034000</v>
@@ -857,7 +713,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L3">
         <v>3369190</v>
@@ -869,117 +725,69 @@
         <v>7944</v>
       </c>
       <c r="O3">
-        <v>70.08</v>
+        <v>2.71</v>
       </c>
       <c r="P3">
-        <v>29.92</v>
+        <v>10.17</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>6.71</v>
       </c>
       <c r="R3">
-        <v>20.2</v>
+        <v>12.06</v>
       </c>
       <c r="S3">
-        <v>15.04</v>
+        <v>20.48</v>
       </c>
       <c r="T3">
-        <v>10.68</v>
+        <v>0.89</v>
       </c>
       <c r="U3">
-        <v>15.11</v>
+        <v>11.68</v>
       </c>
       <c r="V3">
-        <v>9.050000000000001</v>
+        <v>6.44</v>
       </c>
       <c r="W3">
-        <v>29.92</v>
+        <v>17.9</v>
       </c>
       <c r="X3">
-        <v>26.66</v>
+        <v>10.96</v>
       </c>
       <c r="Y3">
-        <v>45.36</v>
+        <v>6.02</v>
       </c>
       <c r="Z3">
-        <v>27.98</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>19.21</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>43.85</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>10.44</v>
       </c>
       <c r="AE3">
-        <v>2.71</v>
+        <v>14.22</v>
       </c>
       <c r="AF3">
-        <v>10.17</v>
-      </c>
-      <c r="AG3">
-        <v>6.71</v>
-      </c>
-      <c r="AH3">
-        <v>12.06</v>
-      </c>
-      <c r="AI3">
-        <v>20.48</v>
-      </c>
-      <c r="AJ3">
-        <v>0.89</v>
-      </c>
-      <c r="AK3">
-        <v>11.68</v>
-      </c>
-      <c r="AL3">
-        <v>6.44</v>
-      </c>
-      <c r="AM3">
-        <v>17.9</v>
-      </c>
-      <c r="AN3">
-        <v>10.96</v>
-      </c>
-      <c r="AO3">
-        <v>6.02</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>19.21</v>
-      </c>
-      <c r="AS3">
-        <v>43.85</v>
-      </c>
-      <c r="AT3">
-        <v>10.44</v>
-      </c>
-      <c r="AU3">
-        <v>14.22</v>
-      </c>
-      <c r="AV3">
         <v>6.26</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>25902</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>202003</v>
@@ -991,10 +799,10 @@
         <v>1309077849</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I4">
         <v>4183034000</v>
@@ -1003,7 +811,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L4">
         <v>4500320</v>
@@ -1015,117 +823,69 @@
         <v>11435</v>
       </c>
       <c r="O4">
-        <v>98.27</v>
+        <v>1.59</v>
       </c>
       <c r="P4">
-        <v>1.73</v>
+        <v>2.01</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>6.04</v>
       </c>
       <c r="R4">
-        <v>22.16</v>
+        <v>15.96</v>
       </c>
       <c r="S4">
-        <v>31.31</v>
+        <v>34.75</v>
       </c>
       <c r="T4">
-        <v>13.46</v>
+        <v>0.55</v>
       </c>
       <c r="U4">
-        <v>9.619999999999999</v>
+        <v>4.05</v>
       </c>
       <c r="V4">
-        <v>21.73</v>
+        <v>6.55</v>
       </c>
       <c r="W4">
-        <v>1.73</v>
+        <v>14.05</v>
       </c>
       <c r="X4">
-        <v>25.03</v>
+        <v>14.45</v>
       </c>
       <c r="Y4">
-        <v>46.06</v>
+        <v>3.95</v>
       </c>
       <c r="Z4">
-        <v>28.9</v>
+        <v>3.49</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>22.41</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>46.28</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>16.38</v>
       </c>
       <c r="AE4">
-        <v>1.59</v>
+        <v>7</v>
       </c>
       <c r="AF4">
-        <v>2.01</v>
-      </c>
-      <c r="AG4">
-        <v>6.04</v>
-      </c>
-      <c r="AH4">
-        <v>15.96</v>
-      </c>
-      <c r="AI4">
-        <v>34.75</v>
-      </c>
-      <c r="AJ4">
-        <v>0.55</v>
-      </c>
-      <c r="AK4">
-        <v>4.05</v>
-      </c>
-      <c r="AL4">
-        <v>6.55</v>
-      </c>
-      <c r="AM4">
-        <v>14.05</v>
-      </c>
-      <c r="AN4">
-        <v>14.45</v>
-      </c>
-      <c r="AO4">
-        <v>3.95</v>
-      </c>
-      <c r="AP4">
-        <v>3.49</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>22.41</v>
-      </c>
-      <c r="AS4">
-        <v>46.28</v>
-      </c>
-      <c r="AT4">
-        <v>16.38</v>
-      </c>
-      <c r="AU4">
-        <v>7</v>
-      </c>
-      <c r="AV4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>37689</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>202004</v>
@@ -1137,10 +897,10 @@
         <v>1309077849</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I5">
         <v>4183034000</v>
@@ -1149,7 +909,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L5">
         <v>2758437</v>
@@ -1161,117 +921,69 @@
         <v>9429</v>
       </c>
       <c r="O5">
-        <v>84.7</v>
+        <v>1.78</v>
       </c>
       <c r="P5">
-        <v>15.3</v>
+        <v>8.59</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="R5">
-        <v>36.02</v>
+        <v>36.87</v>
       </c>
       <c r="S5">
-        <v>19.92</v>
+        <v>15.79</v>
       </c>
       <c r="T5">
-        <v>0.83</v>
+        <v>1.58</v>
       </c>
       <c r="U5">
-        <v>11.55</v>
+        <v>4.88</v>
       </c>
       <c r="V5">
-        <v>16.36</v>
+        <v>1.62</v>
       </c>
       <c r="W5">
-        <v>15.3</v>
+        <v>8.4</v>
       </c>
       <c r="X5">
-        <v>41.89</v>
+        <v>16.31</v>
       </c>
       <c r="Y5">
-        <v>41.99</v>
+        <v>0.97</v>
       </c>
       <c r="Z5">
-        <v>14.98</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>19.13</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>55.81</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>16.66</v>
       </c>
       <c r="AE5">
-        <v>1.78</v>
+        <v>2.34</v>
       </c>
       <c r="AF5">
-        <v>8.59</v>
-      </c>
-      <c r="AG5">
-        <v>4.17</v>
-      </c>
-      <c r="AH5">
-        <v>36.87</v>
-      </c>
-      <c r="AI5">
-        <v>15.79</v>
-      </c>
-      <c r="AJ5">
-        <v>1.58</v>
-      </c>
-      <c r="AK5">
-        <v>4.88</v>
-      </c>
-      <c r="AL5">
-        <v>1.62</v>
-      </c>
-      <c r="AM5">
-        <v>8.4</v>
-      </c>
-      <c r="AN5">
-        <v>16.31</v>
-      </c>
-      <c r="AO5">
-        <v>0.97</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>19.13</v>
-      </c>
-      <c r="AS5">
-        <v>55.81</v>
-      </c>
-      <c r="AT5">
-        <v>16.66</v>
-      </c>
-      <c r="AU5">
-        <v>2.34</v>
-      </c>
-      <c r="AV5">
         <v>5.1</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>49520</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>202005</v>
@@ -1283,10 +995,10 @@
         <v>1309077849</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I6">
         <v>4183034000</v>
@@ -1295,7 +1007,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L6">
         <v>1428756</v>
@@ -1307,117 +1019,69 @@
         <v>4844</v>
       </c>
       <c r="O6">
-        <v>80.59</v>
+        <v>5.86</v>
       </c>
       <c r="P6">
-        <v>19.41</v>
+        <v>12.1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="R6">
-        <v>16.37</v>
+        <v>8.23</v>
       </c>
       <c r="S6">
-        <v>8.58</v>
+        <v>5.34</v>
       </c>
       <c r="T6">
-        <v>18.51</v>
+        <v>3.01</v>
       </c>
       <c r="U6">
-        <v>17.2</v>
+        <v>6.54</v>
       </c>
       <c r="V6">
-        <v>23.36</v>
+        <v>11.35</v>
       </c>
       <c r="W6">
-        <v>15.97</v>
+        <v>24.28</v>
       </c>
       <c r="X6">
-        <v>31</v>
+        <v>20.29</v>
       </c>
       <c r="Y6">
-        <v>32.63</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>36.36</v>
+        <v>5.86</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>18.38</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>51.97</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>12.81</v>
       </c>
       <c r="AE6">
-        <v>5.86</v>
+        <v>1.8</v>
       </c>
       <c r="AF6">
-        <v>12.1</v>
-      </c>
-      <c r="AG6">
-        <v>3.01</v>
-      </c>
-      <c r="AH6">
-        <v>8.23</v>
-      </c>
-      <c r="AI6">
-        <v>5.34</v>
-      </c>
-      <c r="AJ6">
-        <v>3.01</v>
-      </c>
-      <c r="AK6">
-        <v>6.54</v>
-      </c>
-      <c r="AL6">
-        <v>11.35</v>
-      </c>
-      <c r="AM6">
-        <v>24.28</v>
-      </c>
-      <c r="AN6">
-        <v>20.29</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>5.86</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>18.38</v>
-      </c>
-      <c r="AS6">
-        <v>51.97</v>
-      </c>
-      <c r="AT6">
-        <v>12.81</v>
-      </c>
-      <c r="AU6">
-        <v>1.8</v>
-      </c>
-      <c r="AV6">
         <v>9.17</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>61424</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>202006</v>
@@ -1429,10 +1093,10 @@
         <v>1309077849</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I7">
         <v>4183034000</v>
@@ -1441,7 +1105,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L7">
         <v>6856675</v>
@@ -1453,117 +1117,69 @@
         <v>13535</v>
       </c>
       <c r="O7">
-        <v>67.7</v>
+        <v>5.79</v>
       </c>
       <c r="P7">
-        <v>32.3</v>
+        <v>10.87</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="R7">
-        <v>5.48</v>
+        <v>20.56</v>
       </c>
       <c r="S7">
-        <v>23.25</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="T7">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>23.82</v>
+        <v>3.99</v>
       </c>
       <c r="V7">
-        <v>9.07</v>
+        <v>3.7</v>
       </c>
       <c r="W7">
-        <v>32.3</v>
+        <v>8.75</v>
       </c>
       <c r="X7">
-        <v>65.76000000000001</v>
+        <v>32.73</v>
       </c>
       <c r="Y7">
-        <v>27.33</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>6.91</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>12.15</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>75.03</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>6.02</v>
       </c>
       <c r="AE7">
-        <v>5.79</v>
+        <v>5.1</v>
       </c>
       <c r="AF7">
-        <v>10.87</v>
-      </c>
-      <c r="AG7">
-        <v>5.25</v>
-      </c>
-      <c r="AH7">
-        <v>20.56</v>
-      </c>
-      <c r="AI7">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>3.99</v>
-      </c>
-      <c r="AL7">
-        <v>3.7</v>
-      </c>
-      <c r="AM7">
-        <v>8.75</v>
-      </c>
-      <c r="AN7">
-        <v>32.73</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>12.15</v>
-      </c>
-      <c r="AS7">
-        <v>75.03</v>
-      </c>
-      <c r="AT7">
-        <v>6.02</v>
-      </c>
-      <c r="AU7">
-        <v>5.1</v>
-      </c>
-      <c r="AV7">
         <v>1.69</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>82999</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>202008</v>
@@ -1575,10 +1191,10 @@
         <v>5495000437</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I8">
         <v>4183034000</v>
@@ -1587,7 +1203,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L8">
         <v>47193780</v>
@@ -1599,117 +1215,69 @@
         <v>432970.4587155964</v>
       </c>
       <c r="O8">
-        <v>84.45244529173125</v>
+        <v>0.6108671685124608</v>
       </c>
       <c r="P8">
-        <v>15.54755470826876</v>
+        <v>28.12657096252939</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>37.13481222779782</v>
       </c>
       <c r="R8">
-        <v>22.83569629896143</v>
+        <v>14.38796589296301</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>11.0685476128422</v>
       </c>
       <c r="T8">
-        <v>32.04399760222639</v>
+        <v>0</v>
       </c>
       <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0.3872844985080661</v>
+      </c>
+      <c r="X8">
+        <v>8.28409894058073</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>28.86552318250414</v>
+      </c>
+      <c r="AC8">
+        <v>69.83894047986833</v>
+      </c>
+      <c r="AD8">
+        <v>0.8710069771906384</v>
+      </c>
+      <c r="AE8">
         <v>0.424529360436905</v>
       </c>
-      <c r="V8">
-        <v>29.13836933384018</v>
-      </c>
-      <c r="W8">
-        <v>15.54755470826876</v>
-      </c>
-      <c r="X8">
-        <v>8.595497618542105</v>
-      </c>
-      <c r="Y8">
-        <v>48.05263880960585</v>
-      </c>
-      <c r="Z8">
-        <v>43.35186357185206</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0.6108671685124608</v>
-      </c>
       <c r="AF8">
-        <v>28.12657096252939</v>
-      </c>
-      <c r="AG8">
-        <v>37.13481222779782</v>
-      </c>
-      <c r="AH8">
-        <v>14.38796589296301</v>
-      </c>
-      <c r="AI8">
-        <v>11.0685476128422</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0.3872844985080661</v>
-      </c>
-      <c r="AN8">
-        <v>8.28409894058073</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>28.86552318250414</v>
-      </c>
-      <c r="AS8">
-        <v>69.83894047986833</v>
-      </c>
-      <c r="AT8">
-        <v>0.8710069771906384</v>
-      </c>
-      <c r="AU8">
-        <v>0.424529360436905</v>
-      </c>
-      <c r="AV8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>94933</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>202009</v>
@@ -1721,10 +1289,10 @@
         <v>5495000437</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I9">
         <v>4183034000</v>
@@ -1733,7 +1301,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L9">
         <v>64115401</v>
@@ -1745,117 +1313,69 @@
         <v>224179.7237762238</v>
       </c>
       <c r="O9">
-        <v>71.85641881862364</v>
+        <v>0.2026191307763949</v>
       </c>
       <c r="P9">
-        <v>28.14358118137638</v>
+        <v>4.786298814695083</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>11.91746687476851</v>
       </c>
       <c r="R9">
-        <v>10.96520775577774</v>
+        <v>15.70186510882151</v>
       </c>
       <c r="S9">
-        <v>30.65753339809884</v>
+        <v>12.55809740018627</v>
       </c>
       <c r="T9">
-        <v>12.78484223221188</v>
+        <v>0.2026191307763949</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>9.353932188773177</v>
       </c>
       <c r="V9">
-        <v>17.44883543253516</v>
+        <v>8.915868786970542</v>
       </c>
       <c r="W9">
-        <v>28.14358118137638</v>
+        <v>23.98855940712279</v>
       </c>
       <c r="X9">
-        <v>22.22099457554668</v>
+        <v>12.37188311759916</v>
       </c>
       <c r="Y9">
-        <v>63.65811137062062</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>14.12168409334288</v>
+        <v>3.739243958873469</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>5.249437471349513</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>24.6456752744945</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>22.65793788609386</v>
       </c>
       <c r="AE9">
-        <v>0.2026191307763949</v>
+        <v>31.39902545240262</v>
       </c>
       <c r="AF9">
-        <v>4.786298814695083</v>
-      </c>
-      <c r="AG9">
-        <v>11.91746687476851</v>
-      </c>
-      <c r="AH9">
-        <v>15.70186510882151</v>
-      </c>
-      <c r="AI9">
-        <v>12.55809740018627</v>
-      </c>
-      <c r="AJ9">
-        <v>0.2026191307763949</v>
-      </c>
-      <c r="AK9">
-        <v>9.353932188773177</v>
-      </c>
-      <c r="AL9">
-        <v>8.915868786970542</v>
-      </c>
-      <c r="AM9">
-        <v>23.98855940712279</v>
-      </c>
-      <c r="AN9">
-        <v>12.37188311759916</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>3.739243958873469</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>5.249437471349513</v>
-      </c>
-      <c r="AS9">
-        <v>24.6456752744945</v>
-      </c>
-      <c r="AT9">
-        <v>22.65793788609386</v>
-      </c>
-      <c r="AU9">
-        <v>31.39902545240262</v>
-      </c>
-      <c r="AV9">
         <v>12.30788991727588</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>106901</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>202010</v>
@@ -1867,10 +1387,10 @@
         <v>5495000437</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I10">
         <v>4183034000</v>
@@ -1879,7 +1399,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L10">
         <v>116241973</v>
@@ -1891,117 +1411,69 @@
         <v>296535.6454081633</v>
       </c>
       <c r="O10">
-        <v>80.60410387089695</v>
+        <v>3.611538022156592</v>
       </c>
       <c r="P10">
-        <v>19.39589612910304</v>
+        <v>9.222753509698258</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>29.93457905545013</v>
       </c>
       <c r="R10">
-        <v>14.3207311440765</v>
+        <v>34.96500027077138</v>
       </c>
       <c r="S10">
-        <v>16.9781813481435</v>
+        <v>10.88011936239245</v>
       </c>
       <c r="T10">
-        <v>36.03296756430657</v>
+        <v>0.02708522299427936</v>
       </c>
       <c r="U10">
-        <v>0.02608206658708382</v>
+        <v>3.389375612456268</v>
       </c>
       <c r="V10">
-        <v>13.24614174778331</v>
+        <v>2.552767297489006</v>
       </c>
       <c r="W10">
-        <v>19.39589612910304</v>
+        <v>3.811941461196637</v>
       </c>
       <c r="X10">
-        <v>51.15275178622441</v>
+        <v>1.595090974496794</v>
       </c>
       <c r="Y10">
-        <v>35.67105594370804</v>
+        <v>0.179815785989799</v>
       </c>
       <c r="Z10">
-        <v>13.17594148096574</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>23.9858398948545</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>49.03015092646439</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>10.75699225425226</v>
       </c>
       <c r="AE10">
-        <v>3.611538022156592</v>
+        <v>11.29933543101509</v>
       </c>
       <c r="AF10">
-        <v>9.222753509698258</v>
-      </c>
-      <c r="AG10">
-        <v>29.93457905545013</v>
-      </c>
-      <c r="AH10">
-        <v>34.96500027077138</v>
-      </c>
-      <c r="AI10">
-        <v>10.88011936239245</v>
-      </c>
-      <c r="AJ10">
-        <v>0.02708522299427936</v>
-      </c>
-      <c r="AK10">
-        <v>3.389375612456268</v>
-      </c>
-      <c r="AL10">
-        <v>2.552767297489006</v>
-      </c>
-      <c r="AM10">
-        <v>3.811941461196637</v>
-      </c>
-      <c r="AN10">
-        <v>1.595090974496794</v>
-      </c>
-      <c r="AO10">
-        <v>0.179815785989799</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>23.9858398948545</v>
-      </c>
-      <c r="AS10">
-        <v>49.03015092646439</v>
-      </c>
-      <c r="AT10">
-        <v>10.75699225425226</v>
-      </c>
-      <c r="AU10">
-        <v>11.29933543101509</v>
-      </c>
-      <c r="AV10">
         <v>4.757614918322146</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>118911</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>202011</v>
@@ -2013,10 +1485,10 @@
         <v>5495000437</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I11">
         <v>4183034000</v>
@@ -2025,7 +1497,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L11">
         <v>95998912</v>
@@ -2037,117 +1509,69 @@
         <v>215727.8921348315</v>
       </c>
       <c r="O11">
-        <v>82.40287510300115</v>
+        <v>0.1927891847357603</v>
       </c>
       <c r="P11">
-        <v>17.59712489699883</v>
+        <v>6.356601701902622</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>22.02873181437723</v>
       </c>
       <c r="R11">
-        <v>17.53921795217845</v>
+        <v>39.36215344503071</v>
       </c>
       <c r="S11">
-        <v>24.30458989847718</v>
+        <v>23.52599725505223</v>
       </c>
       <c r="T11">
-        <v>30.58244002202858</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.04371040350957311</v>
+        <v>4.811110348625617</v>
       </c>
       <c r="V11">
-        <v>9.93291682680737</v>
+        <v>2.825701345031911</v>
       </c>
       <c r="W11">
-        <v>17.59712489699883</v>
+        <v>0.2775797419454087</v>
       </c>
       <c r="X11">
-        <v>28.76054872351053</v>
+        <v>0.6193351632985173</v>
       </c>
       <c r="Y11">
-        <v>60.2500650563623</v>
+        <v>6.642220697251236</v>
       </c>
       <c r="Z11">
-        <v>10.98975981331955</v>
+        <v>0.7701125446088389</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>16.86330085095131</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>56.41111034862561</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>9.604769695306548</v>
       </c>
       <c r="AE11">
-        <v>0.1927891847357603</v>
+        <v>3.9711474059206</v>
       </c>
       <c r="AF11">
-        <v>6.356601701902622</v>
-      </c>
-      <c r="AG11">
-        <v>22.02873181437723</v>
-      </c>
-      <c r="AH11">
-        <v>39.36215344503071</v>
-      </c>
-      <c r="AI11">
-        <v>23.52599725505223</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>4.811110348625617</v>
-      </c>
-      <c r="AL11">
-        <v>2.825701345031911</v>
-      </c>
-      <c r="AM11">
-        <v>0.2775797419454087</v>
-      </c>
-      <c r="AN11">
-        <v>0.6193351632985173</v>
-      </c>
-      <c r="AO11">
-        <v>6.642220697251236</v>
-      </c>
-      <c r="AP11">
-        <v>0.7701125446088389</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>16.86330085095131</v>
-      </c>
-      <c r="AS11">
-        <v>56.41111034862561</v>
-      </c>
-      <c r="AT11">
-        <v>9.604769695306548</v>
-      </c>
-      <c r="AU11">
-        <v>3.9711474059206</v>
-      </c>
-      <c r="AV11">
         <v>5.73733845733585</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>130943</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>202012</v>
@@ -2159,10 +1583,10 @@
         <v>5495000437</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I12">
         <v>4183034000</v>
@@ -2171,7 +1595,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L12">
         <v>130270002</v>
@@ -2183,117 +1607,69 @@
         <v>353035.2357723577</v>
       </c>
       <c r="O12">
-        <v>91.3389846256393</v>
+        <v>6.076420860268353</v>
       </c>
       <c r="P12">
-        <v>8.661015374360707</v>
+        <v>2.92322744264639</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>15.77903009750472</v>
       </c>
       <c r="R12">
-        <v>35.8585534947639</v>
+        <v>39.48023811207126</v>
       </c>
       <c r="S12">
-        <v>22.76163927164137</v>
+        <v>11.62847994214355</v>
       </c>
       <c r="T12">
-        <v>9.035779950475476</v>
+        <v>4.538434470278122</v>
       </c>
       <c r="U12">
-        <v>0.04056723097309847</v>
+        <v>0.2442314332658105</v>
       </c>
       <c r="V12">
-        <v>23.65235392335374</v>
+        <v>7.424628476017066</v>
       </c>
       <c r="W12">
-        <v>8.661015374360707</v>
+        <v>6.498162206983</v>
       </c>
       <c r="X12">
-        <v>12.27648328154628</v>
+        <v>5.397146958821724</v>
       </c>
       <c r="Y12">
-        <v>22.95727755634793</v>
+        <v>0.02187181804142446</v>
       </c>
       <c r="Z12">
-        <v>64.76632991653749</v>
+        <v>4.538434470278122</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>20.1654281902905</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>27.75984132171887</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>23.74222345202697</v>
       </c>
       <c r="AE12">
-        <v>6.076420860268353</v>
+        <v>21.88815082324172</v>
       </c>
       <c r="AF12">
-        <v>2.92322744264639</v>
-      </c>
-      <c r="AG12">
-        <v>15.77903009750472</v>
-      </c>
-      <c r="AH12">
-        <v>39.48023811207126</v>
-      </c>
-      <c r="AI12">
-        <v>11.62847994214355</v>
-      </c>
-      <c r="AJ12">
-        <v>4.538434470278122</v>
-      </c>
-      <c r="AK12">
-        <v>0.2442314332658105</v>
-      </c>
-      <c r="AL12">
-        <v>7.424628476017066</v>
-      </c>
-      <c r="AM12">
-        <v>6.498162206983</v>
-      </c>
-      <c r="AN12">
-        <v>5.397146958821724</v>
-      </c>
-      <c r="AO12">
-        <v>0.02187181804142446</v>
-      </c>
-      <c r="AP12">
-        <v>4.538434470278122</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>20.1654281902905</v>
-      </c>
-      <c r="AS12">
-        <v>27.75984132171887</v>
-      </c>
-      <c r="AT12">
-        <v>23.74222345202697</v>
-      </c>
-      <c r="AU12">
-        <v>21.88815082324172</v>
-      </c>
-      <c r="AV12">
         <v>1.884049924402396</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>142981</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>202101</v>
@@ -2305,10 +1681,10 @@
         <v>5495000437</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I13">
         <v>4183034000</v>
@@ -2317,7 +1693,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L13">
         <v>76841413</v>
@@ -2329,117 +1705,69 @@
         <v>283547.6494464945</v>
       </c>
       <c r="O13">
-        <v>86.12393539626868</v>
+        <v>1.110686520040958</v>
       </c>
       <c r="P13">
-        <v>13.87606460373133</v>
+        <v>26.4283233263813</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>11.78105782763261</v>
       </c>
       <c r="R13">
-        <v>16.09889769960373</v>
+        <v>22.43190096725577</v>
       </c>
       <c r="S13">
-        <v>12.51761167523038</v>
+        <v>17.47015083012593</v>
       </c>
       <c r="T13">
-        <v>28.72909686213084</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>7.794639328144578</v>
       </c>
       <c r="V13">
-        <v>28.77832915930372</v>
+        <v>0.4260085520551268</v>
       </c>
       <c r="W13">
-        <v>13.87606460373133</v>
+        <v>7.253805837615193</v>
       </c>
       <c r="X13">
-        <v>32.88201894699672</v>
+        <v>5.313343654677459</v>
       </c>
       <c r="Y13">
-        <v>29.55599109675403</v>
+        <v>0.3669232253706736</v>
       </c>
       <c r="Z13">
-        <v>37.57182364410711</v>
+        <v>0.2975053178681136</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>19.33048345441019</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>53.8755830791399</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>14.306677616795</v>
       </c>
       <c r="AE13">
-        <v>1.110686520040958</v>
+        <v>8.490684590222203</v>
       </c>
       <c r="AF13">
-        <v>26.4283233263813</v>
-      </c>
-      <c r="AG13">
-        <v>11.78105782763261</v>
-      </c>
-      <c r="AH13">
-        <v>22.43190096725577</v>
-      </c>
-      <c r="AI13">
-        <v>17.47015083012593</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>7.794639328144578</v>
-      </c>
-      <c r="AL13">
-        <v>0.4260085520551268</v>
-      </c>
-      <c r="AM13">
-        <v>7.253805837615193</v>
-      </c>
-      <c r="AN13">
-        <v>5.313343654677459</v>
-      </c>
-      <c r="AO13">
-        <v>0.3669232253706736</v>
-      </c>
-      <c r="AP13">
-        <v>0.2975053178681136</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>19.33048345441019</v>
-      </c>
-      <c r="AS13">
-        <v>53.8755830791399</v>
-      </c>
-      <c r="AT13">
-        <v>14.306677616795</v>
-      </c>
-      <c r="AU13">
-        <v>8.490684590222203</v>
-      </c>
-      <c r="AV13">
         <v>3.34197640405181</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>155021</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>202102</v>
@@ -2451,10 +1779,10 @@
         <v>5495000437</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I14">
         <v>4183034000</v>
@@ -2463,7 +1791,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L14">
         <v>72212312</v>
@@ -2475,117 +1803,69 @@
         <v>243139.0976430976</v>
       </c>
       <c r="O14">
-        <v>93.64087321286708</v>
+        <v>5.091426055434979</v>
       </c>
       <c r="P14">
-        <v>6.35912678713292</v>
+        <v>0.03625034024668813</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>21.67191741790514</v>
       </c>
       <c r="R14">
-        <v>32.27598200401062</v>
+        <v>37.11993035398174</v>
       </c>
       <c r="S14">
-        <v>28.0015301235612</v>
+        <v>4.068378616377773</v>
       </c>
       <c r="T14">
-        <v>6.57355641348251</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>0.02958164557866531</v>
+        <v>0.02667477867209126</v>
       </c>
       <c r="V14">
-        <v>26.77005203406311</v>
+        <v>8.692015402027289</v>
       </c>
       <c r="W14">
-        <v>6.35912678713292</v>
+        <v>9.339954049940957</v>
       </c>
       <c r="X14">
-        <v>29.70709649512399</v>
+        <v>13.95345298541335</v>
       </c>
       <c r="Y14">
-        <v>50.23641252644008</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>20.05649097843592</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>5.676439584429869</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>47.10056501057604</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>22.51362125561081</v>
       </c>
       <c r="AE14">
-        <v>5.091426055434979</v>
+        <v>24.70937414938328</v>
       </c>
       <c r="AF14">
-        <v>0.03625034024668813</v>
-      </c>
-      <c r="AG14">
-        <v>21.67191741790514</v>
-      </c>
-      <c r="AH14">
-        <v>37.11993035398174</v>
-      </c>
-      <c r="AI14">
-        <v>4.068378616377773</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0.02667477867209126</v>
-      </c>
-      <c r="AL14">
-        <v>8.692015402027289</v>
-      </c>
-      <c r="AM14">
-        <v>9.339954049940957</v>
-      </c>
-      <c r="AN14">
-        <v>13.95345298541335</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>5.676439584429869</v>
-      </c>
-      <c r="AS14">
-        <v>47.10056501057604</v>
-      </c>
-      <c r="AT14">
-        <v>22.51362125561081</v>
-      </c>
-      <c r="AU14">
-        <v>24.70937414938328</v>
-      </c>
-      <c r="AV14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>167104</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>202103</v>
@@ -2597,10 +1877,10 @@
         <v>5495000437</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I15">
         <v>4183034000</v>
@@ -2609,7 +1889,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L15">
         <v>79001776</v>
@@ -2621,117 +1901,69 @@
         <v>262464.3720930233</v>
       </c>
       <c r="O15">
-        <v>74.05241920763909</v>
+        <v>1.118816718246942</v>
       </c>
       <c r="P15">
-        <v>25.94758079236092</v>
+        <v>19.33906294258498</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>15.14967263951129</v>
       </c>
       <c r="R15">
-        <v>13.60368172052233</v>
+        <v>23.20402370802398</v>
       </c>
       <c r="S15">
-        <v>25.97485266128701</v>
+        <v>10.26276081413663</v>
       </c>
       <c r="T15">
-        <v>24.54575589262702</v>
+        <v>0.3549453764178668</v>
       </c>
       <c r="U15">
-        <v>0.07357285436216017</v>
+        <v>0.3661163171825403</v>
       </c>
       <c r="V15">
-        <v>9.854556078840558</v>
+        <v>2.853822126732948</v>
       </c>
       <c r="W15">
-        <v>25.94758079236092</v>
+        <v>9.886302509452445</v>
       </c>
       <c r="X15">
-        <v>22.85408869314533</v>
+        <v>17.45461725392097</v>
       </c>
       <c r="Y15">
-        <v>54.80185377275568</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>22.34405753409898</v>
+        <v>7.503150873722129</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>18.56252731179107</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>31.29767731753271</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>31.05995192791615</v>
       </c>
       <c r="AE15">
-        <v>1.118816718246942</v>
+        <v>0.1917318035989469</v>
       </c>
       <c r="AF15">
-        <v>19.33906294258498</v>
-      </c>
-      <c r="AG15">
-        <v>15.14967263951129</v>
-      </c>
-      <c r="AH15">
-        <v>23.20402370802398</v>
-      </c>
-      <c r="AI15">
-        <v>10.26276081413663</v>
-      </c>
-      <c r="AJ15">
-        <v>0.3549453764178668</v>
-      </c>
-      <c r="AK15">
-        <v>0.3661163171825403</v>
-      </c>
-      <c r="AL15">
-        <v>2.853822126732948</v>
-      </c>
-      <c r="AM15">
-        <v>9.886302509452445</v>
-      </c>
-      <c r="AN15">
-        <v>17.45461725392097</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>7.503150873722129</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>18.56252731179107</v>
-      </c>
-      <c r="AS15">
-        <v>31.29767731753271</v>
-      </c>
-      <c r="AT15">
-        <v>31.05995192791615</v>
-      </c>
-      <c r="AU15">
-        <v>0.1917318035989469</v>
-      </c>
-      <c r="AV15">
         <v>11.384960765439</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>179253</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>202104</v>
@@ -2743,10 +1975,10 @@
         <v>5495000437</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I16">
         <v>4183034000</v>
@@ -2755,7 +1987,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L16">
         <v>94873455</v>
@@ -2767,117 +1999,69 @@
         <v>282361.4732142857</v>
       </c>
       <c r="O16">
-        <v>93.33412740128418</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>6.665872598715837</v>
+        <v>14.22864986228234</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>14.93658045466985</v>
       </c>
       <c r="R16">
-        <v>42.46643832397587</v>
+        <v>42.07436159482123</v>
       </c>
       <c r="S16">
-        <v>16.73138109442731</v>
+        <v>11.12374903085378</v>
       </c>
       <c r="T16">
-        <v>13.06447562229077</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>9.010845518591054</v>
       </c>
       <c r="V16">
-        <v>21.06192318451984</v>
+        <v>2.039661954020753</v>
       </c>
       <c r="W16">
-        <v>6.665872598715837</v>
+        <v>3.180817415366606</v>
       </c>
       <c r="X16">
-        <v>29.59687817619797</v>
+        <v>3.405243345464756</v>
       </c>
       <c r="Y16">
-        <v>61.21175946485769</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>9.191453182873964</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>18.56878181794897</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>53.8151826709589</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>20.81332952868639</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>4.834077709091549</v>
       </c>
       <c r="AF16">
-        <v>14.22864986228234</v>
-      </c>
-      <c r="AG16">
-        <v>14.93658045466985</v>
-      </c>
-      <c r="AH16">
-        <v>42.07436159482123</v>
-      </c>
-      <c r="AI16">
-        <v>11.12374903085378</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>9.010845518591054</v>
-      </c>
-      <c r="AL16">
-        <v>2.039661954020753</v>
-      </c>
-      <c r="AM16">
-        <v>3.180817415366606</v>
-      </c>
-      <c r="AN16">
-        <v>3.405243345464756</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>18.56878181794897</v>
-      </c>
-      <c r="AS16">
-        <v>53.8151826709589</v>
-      </c>
-      <c r="AT16">
-        <v>20.81332952868639</v>
-      </c>
-      <c r="AU16">
-        <v>4.834077709091549</v>
-      </c>
-      <c r="AV16">
         <v>1.968719097243797</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>191417</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>202105</v>
@@ -2889,10 +2073,10 @@
         <v>5495000437</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I17">
         <v>4183034000</v>
@@ -2901,7 +2085,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L17">
         <v>85541708</v>
@@ -2913,117 +2097,69 @@
         <v>281387.1973684211</v>
       </c>
       <c r="O17">
-        <v>70.67333295554491</v>
+        <v>8.10552062299247</v>
       </c>
       <c r="P17">
-        <v>29.32666704445508</v>
+        <v>10.36375654119508</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>10.10979078240991</v>
       </c>
       <c r="R17">
-        <v>23.70407865996783</v>
+        <v>25.98966273832176</v>
       </c>
       <c r="S17">
-        <v>9.54236773259192</v>
+        <v>17.92123902926979</v>
       </c>
       <c r="T17">
-        <v>0.9289498949448145</v>
+        <v>0.3321090691806154</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>2.520121760252905</v>
       </c>
       <c r="V17">
-        <v>36.49793666804035</v>
+        <v>7.452332296310941</v>
       </c>
       <c r="W17">
-        <v>29.32666704445508</v>
+        <v>7.365007004770117</v>
       </c>
       <c r="X17">
-        <v>63.93431218803814</v>
+        <v>9.830692241496978</v>
       </c>
       <c r="Y17">
-        <v>20.33654641756744</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>15.72914139439442</v>
+        <v>0.5176994313697829</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>16.51352445499452</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>44.27750422331993</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>28.01978676530518</v>
       </c>
       <c r="AE17">
-        <v>8.10552062299247</v>
+        <v>0.2436119123317014</v>
       </c>
       <c r="AF17">
-        <v>10.36375654119508</v>
-      </c>
-      <c r="AG17">
-        <v>10.10979078240991</v>
-      </c>
-      <c r="AH17">
-        <v>25.98966273832176</v>
-      </c>
-      <c r="AI17">
-        <v>17.92123902926979</v>
-      </c>
-      <c r="AJ17">
-        <v>0.3321090691806154</v>
-      </c>
-      <c r="AK17">
-        <v>2.520121760252905</v>
-      </c>
-      <c r="AL17">
-        <v>7.452332296310941</v>
-      </c>
-      <c r="AM17">
-        <v>7.365007004770117</v>
-      </c>
-      <c r="AN17">
-        <v>9.830692241496978</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0.5176994313697829</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>16.51352445499452</v>
-      </c>
-      <c r="AS17">
-        <v>44.27750422331993</v>
-      </c>
-      <c r="AT17">
-        <v>28.01978676530518</v>
-      </c>
-      <c r="AU17">
-        <v>0.2436119123317014</v>
-      </c>
-      <c r="AV17">
         <v>10.43764112647833</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>203625</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>202106</v>
@@ -3035,10 +2171,10 @@
         <v>5495000437</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I18">
         <v>4183034000</v>
@@ -3047,7 +2183,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L18">
         <v>112659921</v>
@@ -3059,117 +2195,69 @@
         <v>303665.5552560647</v>
       </c>
       <c r="O18">
-        <v>75.71029340150167</v>
+        <v>1.251795169641562</v>
       </c>
       <c r="P18">
-        <v>24.28970659849833</v>
+        <v>14.44236123669925</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>15.94242955362981</v>
       </c>
       <c r="R18">
-        <v>18.83079115162881</v>
+        <v>26.24963948590022</v>
       </c>
       <c r="S18">
-        <v>23.33170792326403</v>
+        <v>10.04629316063518</v>
       </c>
       <c r="T18">
-        <v>16.02643650575611</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>12.22324875463032</v>
       </c>
       <c r="V18">
-        <v>17.51150116597365</v>
+        <v>16.31701659749966</v>
       </c>
       <c r="W18">
-        <v>24.28970659849833</v>
+        <v>0.7585811756427558</v>
       </c>
       <c r="X18">
-        <v>58.70156156731194</v>
+        <v>2.768634865721236</v>
       </c>
       <c r="Y18">
-        <v>36.71804255579053</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>4.580395876897517</v>
+        <v>0.1379931683069439</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>14.27937843636514</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>51.7013053351067</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>20.28832012610767</v>
       </c>
       <c r="AE18">
-        <v>1.251795169641562</v>
+        <v>8.191412715263665</v>
       </c>
       <c r="AF18">
-        <v>14.44236123669925</v>
-      </c>
-      <c r="AG18">
-        <v>15.94242955362981</v>
-      </c>
-      <c r="AH18">
-        <v>26.24963948590022</v>
-      </c>
-      <c r="AI18">
-        <v>10.04629316063518</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>12.22324875463032</v>
-      </c>
-      <c r="AL18">
-        <v>16.31701659749966</v>
-      </c>
-      <c r="AM18">
-        <v>0.7585811756427558</v>
-      </c>
-      <c r="AN18">
-        <v>2.768634865721236</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0.1379931683069439</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>14.27937843636514</v>
-      </c>
-      <c r="AS18">
-        <v>51.7013053351067</v>
-      </c>
-      <c r="AT18">
-        <v>20.28832012610767</v>
-      </c>
-      <c r="AU18">
-        <v>8.191412715263665</v>
-      </c>
-      <c r="AV18">
         <v>5.401446873728946</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>215859</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>202107</v>
@@ -3181,10 +2269,10 @@
         <v>5495000437</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I19">
         <v>4183034000</v>
@@ -3193,7 +2281,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L19">
         <v>54886627</v>
@@ -3205,117 +2293,69 @@
         <v>193262.7711267606</v>
       </c>
       <c r="O19">
-        <v>71.27915273405306</v>
+        <v>0.0481281139757413</v>
       </c>
       <c r="P19">
-        <v>28.72084726594695</v>
+        <v>1.383229009499891</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>13.12847128900816</v>
       </c>
       <c r="R19">
-        <v>18.79368086838348</v>
+        <v>31.26552986431467</v>
       </c>
       <c r="S19">
-        <v>14.56576599050257</v>
+        <v>20.21683062415185</v>
       </c>
       <c r="T19">
-        <v>11.35772530529158</v>
+        <v>10.98090939619955</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>2.598294796472008</v>
       </c>
       <c r="V19">
-        <v>26.56198056987543</v>
+        <v>19.51912984395999</v>
       </c>
       <c r="W19">
-        <v>28.72084726594695</v>
+        <v>0.444534674357016</v>
       </c>
       <c r="X19">
-        <v>39.42655689281106</v>
+        <v>0.4149423880611209</v>
       </c>
       <c r="Y19">
-        <v>46.5152193894152</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>14.06789852781443</v>
+        <v>1.393172645861441</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>19.34943050881957</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>56.80645070556075</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2.926178609226615</v>
       </c>
       <c r="AE19">
-        <v>0.0481281139757413</v>
+        <v>18.71582398914767</v>
       </c>
       <c r="AF19">
-        <v>1.383229009499891</v>
-      </c>
-      <c r="AG19">
-        <v>13.12847128900816</v>
-      </c>
-      <c r="AH19">
-        <v>31.26552986431467</v>
-      </c>
-      <c r="AI19">
-        <v>20.21683062415185</v>
-      </c>
-      <c r="AJ19">
-        <v>10.98090939619955</v>
-      </c>
-      <c r="AK19">
-        <v>2.598294796472008</v>
-      </c>
-      <c r="AL19">
-        <v>19.51912984395999</v>
-      </c>
-      <c r="AM19">
-        <v>0.444534674357016</v>
-      </c>
-      <c r="AN19">
-        <v>0.4149423880611209</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>1.393172645861441</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>19.34943050881957</v>
-      </c>
-      <c r="AS19">
-        <v>56.80645070556075</v>
-      </c>
-      <c r="AT19">
-        <v>2.926178609226615</v>
-      </c>
-      <c r="AU19">
-        <v>18.71582398914767</v>
-      </c>
-      <c r="AV19">
         <v>0.8089435413839512</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>228112</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>202108</v>
@@ -3327,10 +2367,10 @@
         <v>5495000437</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I20">
         <v>4183034000</v>
@@ -3339,7 +2379,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L20">
         <v>87330560</v>
@@ -3351,117 +2391,69 @@
         <v>303231.1111111111</v>
       </c>
       <c r="O20">
-        <v>78.32618466067319</v>
+        <v>3.385621404924004</v>
       </c>
       <c r="P20">
-        <v>21.67381533932681</v>
+        <v>14.5258467675004</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>24.33962895050713</v>
       </c>
       <c r="R20">
-        <v>19.84229828641887</v>
+        <v>16.22969998543465</v>
       </c>
       <c r="S20">
-        <v>42.24992770915474</v>
+        <v>5.357842527518431</v>
       </c>
       <c r="T20">
-        <v>12.30561778786257</v>
+        <v>0.2989163907800431</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>6.855773220737392</v>
       </c>
       <c r="V20">
-        <v>3.928340877237018</v>
+        <v>8.69740295493353</v>
       </c>
       <c r="W20">
-        <v>21.67381533932681</v>
+        <v>9.402203991821422</v>
       </c>
       <c r="X20">
-        <v>34.34086563145821</v>
+        <v>10.92651280788764</v>
       </c>
       <c r="Y20">
-        <v>47.53763067865361</v>
+        <v>1.95462470548683</v>
       </c>
       <c r="Z20">
-        <v>18.12122819091049</v>
+        <v>1.10859311654477</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>9.23084362770604</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>57.39615150435311</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>14.92988008458895</v>
       </c>
       <c r="AE20">
-        <v>3.385621404924004</v>
+        <v>10.69471900008428</v>
       </c>
       <c r="AF20">
-        <v>14.5258467675004</v>
-      </c>
-      <c r="AG20">
-        <v>24.33962895050713</v>
-      </c>
-      <c r="AH20">
-        <v>16.22969998543465</v>
-      </c>
-      <c r="AI20">
-        <v>5.357842527518431</v>
-      </c>
-      <c r="AJ20">
-        <v>0.2989163907800431</v>
-      </c>
-      <c r="AK20">
-        <v>6.855773220737392</v>
-      </c>
-      <c r="AL20">
-        <v>8.69740295493353</v>
-      </c>
-      <c r="AM20">
-        <v>9.402203991821422</v>
-      </c>
-      <c r="AN20">
-        <v>10.92651280788764</v>
-      </c>
-      <c r="AO20">
-        <v>1.95462470548683</v>
-      </c>
-      <c r="AP20">
-        <v>1.10859311654477</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>9.23084362770604</v>
-      </c>
-      <c r="AS20">
-        <v>57.39615150435311</v>
-      </c>
-      <c r="AT20">
-        <v>14.92988008458895</v>
-      </c>
-      <c r="AU20">
-        <v>10.69471900008428</v>
-      </c>
-      <c r="AV20">
         <v>4.69518796123602</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>240406</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>202109</v>
@@ -3473,10 +2465,10 @@
         <v>5495000437</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I21">
         <v>4183034000</v>
@@ -3485,7 +2477,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L21">
         <v>115372882</v>
@@ -3497,117 +2489,69 @@
         <v>486805.4092827004</v>
       </c>
       <c r="O21">
-        <v>91.41797570004361</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>8.582055495848669</v>
+        <v>21.10395829602315</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>20.12523389456458</v>
       </c>
       <c r="R21">
-        <v>10.23154248014711</v>
+        <v>26.11340393455717</v>
       </c>
       <c r="S21">
-        <v>14.09303659918975</v>
+        <v>13.12602767329675</v>
       </c>
       <c r="T21">
-        <v>36.04897038629927</v>
+        <v>0.01550435846787636</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>8.971923696939459</v>
       </c>
       <c r="V21">
-        <v>31.0444262344075</v>
+        <v>5.140135231951646</v>
       </c>
       <c r="W21">
-        <v>8.582055495848669</v>
+        <v>0.04875917964847234</v>
       </c>
       <c r="X21">
-        <v>45.61505015225328</v>
+        <v>5.355022538658607</v>
       </c>
       <c r="Y21">
-        <v>33.69146978923521</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>20.6934800585115</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>3.165646456504397</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>52.63397919278813</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>27.21483521404969</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>9.425636157377086</v>
       </c>
       <c r="AF21">
-        <v>21.10395829602315</v>
-      </c>
-      <c r="AG21">
-        <v>20.12523389456458</v>
-      </c>
-      <c r="AH21">
-        <v>26.11340393455717</v>
-      </c>
-      <c r="AI21">
-        <v>13.12602767329675</v>
-      </c>
-      <c r="AJ21">
-        <v>0.01550435846787636</v>
-      </c>
-      <c r="AK21">
-        <v>8.971923696939459</v>
-      </c>
-      <c r="AL21">
-        <v>5.140135231951646</v>
-      </c>
-      <c r="AM21">
-        <v>0.04875917964847234</v>
-      </c>
-      <c r="AN21">
-        <v>5.355022538658607</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>3.165646456504397</v>
-      </c>
-      <c r="AS21">
-        <v>52.63397919278813</v>
-      </c>
-      <c r="AT21">
-        <v>27.21483521404969</v>
-      </c>
-      <c r="AU21">
-        <v>9.425636157377086</v>
-      </c>
-      <c r="AV21">
         <v>7.559902979280693</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>252737</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>202110</v>
@@ -3619,10 +2563,10 @@
         <v>5495000437</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I22">
         <v>4183034000</v>
@@ -3631,7 +2575,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L22">
         <v>87915985</v>
@@ -3643,117 +2587,69 @@
         <v>273031.0093167702</v>
       </c>
       <c r="O22">
-        <v>86.37921787886469</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>13.62078212113531</v>
+        <v>3.665496163183521</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>19.66779546802552</v>
       </c>
       <c r="R22">
-        <v>4.220632050587843</v>
+        <v>42.81410133947768</v>
       </c>
       <c r="S22">
-        <v>11.06791233528237</v>
+        <v>8.349580245276215</v>
       </c>
       <c r="T22">
-        <v>17.40467809238559</v>
+        <v>0.745698785038921</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>9.64456122512874</v>
       </c>
       <c r="V22">
-        <v>53.91341190057758</v>
+        <v>3.669210295488358</v>
       </c>
       <c r="W22">
-        <v>13.39336562116662</v>
+        <v>10.64108775497425</v>
       </c>
       <c r="X22">
-        <v>51.06844268536604</v>
+        <v>0.7928241621816555</v>
       </c>
       <c r="Y22">
-        <v>35.985646233731</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>12.94626651967785</v>
+        <v>0.1832466632774461</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>3.929231734137996</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>63.62116449130382</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>8.802566898385997</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>18.45318234732853</v>
       </c>
       <c r="AF22">
-        <v>3.665496163183521</v>
-      </c>
-      <c r="AG22">
-        <v>19.66779546802552</v>
-      </c>
-      <c r="AH22">
-        <v>42.81410133947768</v>
-      </c>
-      <c r="AI22">
-        <v>8.349580245276215</v>
-      </c>
-      <c r="AJ22">
-        <v>0.745698785038921</v>
-      </c>
-      <c r="AK22">
-        <v>9.64456122512874</v>
-      </c>
-      <c r="AL22">
-        <v>3.669210295488358</v>
-      </c>
-      <c r="AM22">
-        <v>10.64108775497425</v>
-      </c>
-      <c r="AN22">
-        <v>0.7928241621816555</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0.1832466632774461</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>3.929231734137996</v>
-      </c>
-      <c r="AS22">
-        <v>63.62116449130382</v>
-      </c>
-      <c r="AT22">
-        <v>8.802566898385997</v>
-      </c>
-      <c r="AU22">
-        <v>18.45318234732853</v>
-      </c>
-      <c r="AV22">
         <v>5.000607865566199</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>265111</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>202111</v>
@@ -3765,10 +2661,10 @@
         <v>5495000437</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I23">
         <v>4183034000</v>
@@ -3777,7 +2673,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L23">
         <v>99159953</v>
@@ -3789,117 +2685,69 @@
         <v>315796.0286624204</v>
       </c>
       <c r="O23">
-        <v>69.87124143191154</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>30.12875856808847</v>
+        <v>9.936641676806763</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>33.66978256524587</v>
       </c>
       <c r="R23">
-        <v>4.929401996993685</v>
+        <v>14.91695942070485</v>
       </c>
       <c r="S23">
-        <v>9.711943013930229</v>
+        <v>14.67603993680796</v>
       </c>
       <c r="T23">
-        <v>34.88759163863258</v>
+        <v>0.643853214311225</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>0.3243818532265743</v>
       </c>
       <c r="V23">
-        <v>20.34212810225918</v>
+        <v>6.27222560865877</v>
       </c>
       <c r="W23">
-        <v>30.12875856808847</v>
+        <v>6.907844222556257</v>
       </c>
       <c r="X23">
-        <v>50.36127844957733</v>
+        <v>12.65227150168173</v>
       </c>
       <c r="Y23">
-        <v>26.03794780156865</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>23.60059706875819</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>7.366926607155612</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>45.29384527320218</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>27.9732824193654</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>16.33801903415585</v>
       </c>
       <c r="AF23">
-        <v>9.936641676806763</v>
-      </c>
-      <c r="AG23">
-        <v>33.66978256524587</v>
-      </c>
-      <c r="AH23">
-        <v>14.91695942070485</v>
-      </c>
-      <c r="AI23">
-        <v>14.67603993680796</v>
-      </c>
-      <c r="AJ23">
-        <v>0.643853214311225</v>
-      </c>
-      <c r="AK23">
-        <v>0.3243818532265743</v>
-      </c>
-      <c r="AL23">
-        <v>6.27222560865877</v>
-      </c>
-      <c r="AM23">
-        <v>6.907844222556257</v>
-      </c>
-      <c r="AN23">
-        <v>12.65227150168173</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>7.366926607155612</v>
-      </c>
-      <c r="AS23">
-        <v>45.29384527320218</v>
-      </c>
-      <c r="AT23">
-        <v>27.9732824193654</v>
-      </c>
-      <c r="AU23">
-        <v>16.33801903415585</v>
-      </c>
-      <c r="AV23">
         <v>3.018280026312639</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>277522</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>202112</v>
@@ -3911,10 +2759,10 @@
         <v>5495000437</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I24">
         <v>4183034000</v>
@@ -3923,7 +2771,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L24">
         <v>154519799</v>
@@ -3935,117 +2783,69 @@
         <v>419890.7581521739</v>
       </c>
       <c r="O24">
-        <v>80.51669686063985</v>
+        <v>0.1888172460022421</v>
       </c>
       <c r="P24">
-        <v>19.48330313936016</v>
+        <v>4.140044567751477</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>41.96424149393308</v>
       </c>
       <c r="R24">
-        <v>19.51963957977968</v>
+        <v>25.51688676627129</v>
       </c>
       <c r="S24">
-        <v>9.17265447517182</v>
+        <v>10.59038658230458</v>
       </c>
       <c r="T24">
-        <v>26.41381034387704</v>
+        <v>0.05637180533738593</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1.537096523986548</v>
       </c>
       <c r="V24">
-        <v>25.40065471202173</v>
+        <v>0.8997156342405025</v>
       </c>
       <c r="W24">
-        <v>19.48330313936016</v>
+        <v>8.091218118915625</v>
       </c>
       <c r="X24">
-        <v>39.25816253398052</v>
+        <v>7.025221261257272</v>
       </c>
       <c r="Y24">
-        <v>38.24301029397533</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>22.49882717204414</v>
+        <v>0.1888172460022421</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>20.92386411446212</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>24.75231633882723</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>27.26074772573319</v>
       </c>
       <c r="AE24">
-        <v>0.1888172460022421</v>
+        <v>13.3688526109201</v>
       </c>
       <c r="AF24">
-        <v>4.140044567751477</v>
-      </c>
-      <c r="AG24">
-        <v>41.96424149393308</v>
-      </c>
-      <c r="AH24">
-        <v>25.51688676627129</v>
-      </c>
-      <c r="AI24">
-        <v>10.59038658230458</v>
-      </c>
-      <c r="AJ24">
-        <v>0.05637180533738593</v>
-      </c>
-      <c r="AK24">
-        <v>1.537096523986548</v>
-      </c>
-      <c r="AL24">
-        <v>0.8997156342405025</v>
-      </c>
-      <c r="AM24">
-        <v>8.091218118915625</v>
-      </c>
-      <c r="AN24">
-        <v>7.025221261257272</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0.1888172460022421</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>20.92386411446212</v>
-      </c>
-      <c r="AS24">
-        <v>24.75231633882723</v>
-      </c>
-      <c r="AT24">
-        <v>27.26074772573319</v>
-      </c>
-      <c r="AU24">
-        <v>13.3688526109201</v>
-      </c>
-      <c r="AV24">
         <v>13.50540196405511</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>289934</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>202201</v>
@@ -4057,10 +2857,10 @@
         <v>5495000437</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I25">
         <v>4183034000</v>
@@ -4069,7 +2869,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L25">
         <v>90487096</v>
@@ -4081,117 +2881,69 @@
         <v>292838.498381877</v>
       </c>
       <c r="O25">
-        <v>70.34384836242286</v>
+        <v>2.302630878329878</v>
       </c>
       <c r="P25">
-        <v>29.65615163757714</v>
+        <v>6.962563245703011</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>20.26908125087803</v>
       </c>
       <c r="R25">
-        <v>20.10893517214874</v>
+        <v>27.42531541381326</v>
       </c>
       <c r="S25">
-        <v>6.170077782361365</v>
+        <v>19.50835866541678</v>
       </c>
       <c r="T25">
-        <v>34.87496144068984</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>2.361926094080862</v>
       </c>
       <c r="V25">
-        <v>9.179873967222907</v>
+        <v>4.462145465691594</v>
       </c>
       <c r="W25">
-        <v>29.65615163757714</v>
+        <v>2.721072732845797</v>
       </c>
       <c r="X25">
-        <v>62.21260042912638</v>
+        <v>13.99678878919929</v>
       </c>
       <c r="Y25">
-        <v>27.90031745344109</v>
+        <v>0.5240070891434067</v>
       </c>
       <c r="Z25">
-        <v>9.887082117432522</v>
+        <v>2.302630878329878</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>0.6672516576286192</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>27.58606304174022</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>38.78115434094603</v>
       </c>
       <c r="AE25">
-        <v>2.302630878329878</v>
+        <v>16.15143910044367</v>
       </c>
       <c r="AF25">
-        <v>6.962563245703011</v>
-      </c>
-      <c r="AG25">
-        <v>20.26908125087803</v>
-      </c>
-      <c r="AH25">
-        <v>27.42531541381326</v>
-      </c>
-      <c r="AI25">
-        <v>19.50835866541678</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>2.361926094080862</v>
-      </c>
-      <c r="AL25">
-        <v>4.462145465691594</v>
-      </c>
-      <c r="AM25">
-        <v>2.721072732845797</v>
-      </c>
-      <c r="AN25">
-        <v>13.99678878919929</v>
-      </c>
-      <c r="AO25">
-        <v>0.5240070891434067</v>
-      </c>
-      <c r="AP25">
-        <v>2.302630878329878</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0.6672516576286192</v>
-      </c>
-      <c r="AS25">
-        <v>27.58606304174022</v>
-      </c>
-      <c r="AT25">
-        <v>38.78115434094603</v>
-      </c>
-      <c r="AU25">
-        <v>16.15143910044367</v>
-      </c>
-      <c r="AV25">
         <v>13.99733642772667</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>302338</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>202202</v>
@@ -4203,10 +2955,10 @@
         <v>5495000437</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I26">
         <v>4183034000</v>
@@ -4215,7 +2967,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L26">
         <v>106477990</v>
@@ -4227,117 +2979,69 @@
         <v>438181.0288065844</v>
       </c>
       <c r="O26">
-        <v>79.57240131599028</v>
+        <v>3.665979812729372</v>
       </c>
       <c r="P26">
-        <v>20.42759868400972</v>
+        <v>6.762584014217397</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>10.63833378898306</v>
       </c>
       <c r="R26">
-        <v>17.46575799505607</v>
+        <v>32.97384022294185</v>
       </c>
       <c r="S26">
-        <v>26.01874887382829</v>
+        <v>18.90926372069946</v>
       </c>
       <c r="T26">
-        <v>27.16767653765816</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>0.1498356871687754</v>
       </c>
       <c r="V26">
-        <v>8.920217909447764</v>
+        <v>8.955117954799862</v>
       </c>
       <c r="W26">
-        <v>20.42759868400972</v>
+        <v>5.711393530625437</v>
       </c>
       <c r="X26">
-        <v>51.7379867779247</v>
+        <v>12.24364031364604</v>
       </c>
       <c r="Y26">
-        <v>32.84891553531392</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>15.41309768676136</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>4.47509252344076</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>63.76245726126123</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>13.12560619598473</v>
       </c>
       <c r="AE26">
-        <v>3.665979812729372</v>
+        <v>6.432945502446091</v>
       </c>
       <c r="AF26">
-        <v>6.762584014217397</v>
-      </c>
-      <c r="AG26">
-        <v>10.63833378898306</v>
-      </c>
-      <c r="AH26">
-        <v>32.97384022294185</v>
-      </c>
-      <c r="AI26">
-        <v>18.90926372069946</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0.1498356871687754</v>
-      </c>
-      <c r="AL26">
-        <v>8.955117954799862</v>
-      </c>
-      <c r="AM26">
-        <v>5.711393530625437</v>
-      </c>
-      <c r="AN26">
-        <v>12.24364031364604</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>4.47509252344076</v>
-      </c>
-      <c r="AS26">
-        <v>63.76245726126123</v>
-      </c>
-      <c r="AT26">
-        <v>13.12560619598473</v>
-      </c>
-      <c r="AU26">
-        <v>6.432945502446091</v>
-      </c>
-      <c r="AV26">
         <v>12.20389851686719</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>326011</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>202203</v>
@@ -4349,10 +3053,10 @@
         <v>5495000437</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I27">
         <v>4183034000</v>
@@ -4361,7 +3065,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L27">
         <v>3819641</v>
@@ -4373,7 +3077,7 @@
         <v>372500</v>
       </c>
       <c r="O27">
-        <v>100</v>
+        <v>7.38</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -4382,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>92.62</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -4400,90 +3104,42 @@
         <v>0</v>
       </c>
       <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>7.38</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
         <v>92.62</v>
       </c>
-      <c r="Y27">
-        <v>7.38</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>7.38</v>
-      </c>
       <c r="AF27">
         <v>0</v>
       </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>92.62</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>7.38</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>92.62</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>326012</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>202203</v>
@@ -4495,10 +3151,10 @@
         <v>4242001727</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I28">
         <v>4183034000</v>
@@ -4507,7 +3163,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L28">
         <v>94234134</v>
@@ -4519,117 +3175,69 @@
         <v>453141</v>
       </c>
       <c r="O28">
-        <v>94.69</v>
+        <v>7.56</v>
       </c>
       <c r="P28">
-        <v>5.31</v>
+        <v>0.43</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>11.07</v>
       </c>
       <c r="R28">
-        <v>27.37</v>
+        <v>5.19</v>
       </c>
       <c r="S28">
-        <v>15.21</v>
+        <v>22.48</v>
       </c>
       <c r="T28">
-        <v>29</v>
+        <v>6.81</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="V28">
-        <v>23.11</v>
+        <v>4.31</v>
       </c>
       <c r="W28">
-        <v>5.31</v>
+        <v>25.92</v>
       </c>
       <c r="X28">
-        <v>43.85</v>
+        <v>13.21</v>
       </c>
       <c r="Y28">
-        <v>26.79</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>29.36</v>
+        <v>0.16</v>
       </c>
       <c r="AA28">
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>42.89</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>22.18</v>
       </c>
       <c r="AE28">
-        <v>7.56</v>
+        <v>15.1</v>
       </c>
       <c r="AF28">
-        <v>0.43</v>
-      </c>
-      <c r="AG28">
-        <v>11.07</v>
-      </c>
-      <c r="AH28">
-        <v>5.19</v>
-      </c>
-      <c r="AI28">
-        <v>22.48</v>
-      </c>
-      <c r="AJ28">
-        <v>6.81</v>
-      </c>
-      <c r="AK28">
-        <v>3.01</v>
-      </c>
-      <c r="AL28">
-        <v>4.31</v>
-      </c>
-      <c r="AM28">
-        <v>25.92</v>
-      </c>
-      <c r="AN28">
-        <v>13.21</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0.16</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>10.71</v>
-      </c>
-      <c r="AS28">
-        <v>42.89</v>
-      </c>
-      <c r="AT28">
-        <v>22.18</v>
-      </c>
-      <c r="AU28">
-        <v>15.1</v>
-      </c>
-      <c r="AV28">
         <v>8.970000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>338568</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>202204</v>
@@ -4641,10 +3249,10 @@
         <v>4242001727</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I29">
         <v>4183034000</v>
@@ -4653,7 +3261,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L29">
         <v>156000124</v>
@@ -4665,117 +3273,69 @@
         <v>374189</v>
       </c>
       <c r="O29">
-        <v>86.44</v>
+        <v>0.11</v>
       </c>
       <c r="P29">
-        <v>13.56</v>
+        <v>21.12</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>29.36</v>
       </c>
       <c r="R29">
-        <v>23.09</v>
+        <v>14.26</v>
       </c>
       <c r="S29">
-        <v>10.92</v>
+        <v>11.56</v>
       </c>
       <c r="T29">
-        <v>6.79</v>
+        <v>5.58</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="V29">
-        <v>45.63</v>
+        <v>8.08</v>
       </c>
       <c r="W29">
-        <v>13.56</v>
+        <v>4.16</v>
       </c>
       <c r="X29">
-        <v>30.7</v>
+        <v>5.56</v>
       </c>
       <c r="Y29">
-        <v>33.92</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>35.38</v>
+        <v>0.21</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>55.03</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>20.05</v>
       </c>
       <c r="AE29">
-        <v>0.11</v>
+        <v>17.4</v>
       </c>
       <c r="AF29">
-        <v>21.12</v>
-      </c>
-      <c r="AG29">
-        <v>29.36</v>
-      </c>
-      <c r="AH29">
-        <v>14.26</v>
-      </c>
-      <c r="AI29">
-        <v>11.56</v>
-      </c>
-      <c r="AJ29">
-        <v>5.58</v>
-      </c>
-      <c r="AK29">
-        <v>0.21</v>
-      </c>
-      <c r="AL29">
-        <v>8.08</v>
-      </c>
-      <c r="AM29">
-        <v>4.16</v>
-      </c>
-      <c r="AN29">
-        <v>5.56</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0.21</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>1.27</v>
-      </c>
-      <c r="AS29">
-        <v>55.03</v>
-      </c>
-      <c r="AT29">
-        <v>20.05</v>
-      </c>
-      <c r="AU29">
-        <v>17.4</v>
-      </c>
-      <c r="AV29">
         <v>6.05</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>351196</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>202205</v>
@@ -4787,10 +3347,10 @@
         <v>4242001727</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I30">
         <v>4183034000</v>
@@ -4799,7 +3359,7 @@
         <v>116.9939393939394</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L30">
         <v>209574050</v>
@@ -4811,105 +3371,57 @@
         <v>432947</v>
       </c>
       <c r="O30">
-        <v>92.45999999999999</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>7.54</v>
+        <v>11.01</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>20.28</v>
       </c>
       <c r="R30">
-        <v>39.76</v>
+        <v>29.82</v>
       </c>
       <c r="S30">
-        <v>10.18</v>
+        <v>14.92</v>
       </c>
       <c r="T30">
-        <v>18.36</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="V30">
-        <v>24.15</v>
+        <v>6.3</v>
       </c>
       <c r="W30">
-        <v>7.54</v>
+        <v>13.86</v>
       </c>
       <c r="X30">
-        <v>49.42</v>
+        <v>0.43</v>
       </c>
       <c r="Y30">
-        <v>37.47</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>13.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>11.31</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>31.73</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>25.98</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>12.18</v>
       </c>
       <c r="AF30">
-        <v>11.01</v>
-      </c>
-      <c r="AG30">
-        <v>20.28</v>
-      </c>
-      <c r="AH30">
-        <v>29.82</v>
-      </c>
-      <c r="AI30">
-        <v>14.92</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>3.38</v>
-      </c>
-      <c r="AL30">
-        <v>6.3</v>
-      </c>
-      <c r="AM30">
-        <v>13.86</v>
-      </c>
-      <c r="AN30">
-        <v>0.43</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>11.31</v>
-      </c>
-      <c r="AS30">
-        <v>31.73</v>
-      </c>
-      <c r="AT30">
-        <v>25.98</v>
-      </c>
-      <c r="AU30">
-        <v>12.18</v>
-      </c>
-      <c r="AV30">
         <v>18.73</v>
       </c>
     </row>
